--- a/内陆转运表0710.xlsx
+++ b/内陆转运表0710.xlsx
@@ -12,19 +12,20 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8880"/>
   </bookViews>
   <sheets>
-    <sheet name="内陆价格表" sheetId="1" r:id="rId1"/>
-    <sheet name="EMI内陆注意事项" sheetId="2" r:id="rId2"/>
-    <sheet name="PIL内陆注意事项" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="内陆价格表" sheetId="1" r:id="rId2"/>
+    <sheet name="EMI内陆注意事项" sheetId="2" r:id="rId3"/>
+    <sheet name="PIL内陆注意事项" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">内陆价格表!$A$1:$K$182</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">内陆价格表!$A$1:$K$182</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="244">
   <si>
     <t>国家</t>
   </si>
@@ -1088,6 +1089,54 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">RWANDA卢旺达 </t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>BURUNDI布隆迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONGO刚果</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZAMBIA赞比亚</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>MALAWI马拉维</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>KENYA肯尼亚</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>UGANDA乌干达</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZIMBABWE津巴布韦</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>MALI马里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BURKINA FASO布基纳法索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMBAKASI/NAIROBI</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
+  <si>
+    <t>转运港</t>
+    <phoneticPr fontId="54" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1095,9 +1144,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="[$USD]\ #,##0;[Red]\-[$USD]\ #,##0"/>
+    <numFmt numFmtId="176" formatCode="[$USD]\ #,##0;[Red]\-[$USD]\ #,##0"/>
   </numFmts>
-  <fonts count="55" x14ac:knownFonts="1">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1327,13 +1376,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1441,6 +1483,18 @@
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1746,14 +1800,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1934,7 +1988,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1944,10 +1998,10 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1956,7 +2010,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1974,7 +2028,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1987,7 +2041,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1996,58 +2050,58 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2068,16 +2122,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2095,36 +2149,144 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2146,107 +2308,56 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="26" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="26" fillId="0" borderId="2" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2631,11 +2742,3738 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I181"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="A23:XFD23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="184" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="174" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="185" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="184" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="184" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="184" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="184" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="184" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" s="184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="175" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="158" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="130" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="130">
+        <v>20</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="32">
+        <v>2600</v>
+      </c>
+      <c r="H2" s="126"/>
+      <c r="I2" s="176"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="130"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="32">
+        <v>4100</v>
+      </c>
+      <c r="H3" s="126"/>
+      <c r="I3" s="176"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="130"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="23">
+        <v>40</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="32">
+        <v>4350</v>
+      </c>
+      <c r="H4" s="126"/>
+      <c r="I4" s="176"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="177"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="130">
+        <v>20</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="32">
+        <v>2500</v>
+      </c>
+      <c r="H5" s="126"/>
+      <c r="I5" s="43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="130"/>
+      <c r="B6" s="177"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="32">
+        <v>3900</v>
+      </c>
+      <c r="H6" s="126"/>
+      <c r="I6" s="43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="130"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="127">
+        <v>40</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="32">
+        <v>4150</v>
+      </c>
+      <c r="H7" s="126"/>
+      <c r="I7" s="43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="171" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="158" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="130">
+        <v>20</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="32">
+        <v>2650</v>
+      </c>
+      <c r="H8" s="126"/>
+      <c r="I8" s="44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="130"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="32">
+        <v>4200</v>
+      </c>
+      <c r="H9" s="126"/>
+      <c r="I9" s="44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="130"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="23">
+        <v>40</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="32">
+        <v>4400</v>
+      </c>
+      <c r="H10" s="126"/>
+      <c r="I10" s="44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="172" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="150" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="130" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="130">
+        <v>20</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="32">
+        <v>3750</v>
+      </c>
+      <c r="H11" s="126"/>
+      <c r="I11" s="176"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A12" s="130"/>
+      <c r="B12" s="152"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="32">
+        <v>6100</v>
+      </c>
+      <c r="H12" s="126"/>
+      <c r="I12" s="176"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A13" s="130"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="23">
+        <v>40</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="32">
+        <v>6300</v>
+      </c>
+      <c r="H13" s="126"/>
+      <c r="I13" s="176"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="152"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="130">
+        <v>20</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="113">
+        <v>3600</v>
+      </c>
+      <c r="H14" s="126"/>
+      <c r="I14" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="130"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="150"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="113">
+        <v>6200</v>
+      </c>
+      <c r="H15" s="126"/>
+      <c r="I15" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="130"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="23">
+        <v>40</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="113">
+        <v>6500</v>
+      </c>
+      <c r="H16" s="126"/>
+      <c r="I16" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A17" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="152"/>
+      <c r="C17" s="150" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="130" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="130">
+        <v>20</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="32">
+        <v>4150</v>
+      </c>
+      <c r="H17" s="126"/>
+      <c r="I17" s="176"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A18" s="130"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="32">
+        <v>7150</v>
+      </c>
+      <c r="H18" s="126"/>
+      <c r="I18" s="176"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A19" s="130"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="23">
+        <v>40</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="32">
+        <v>7300</v>
+      </c>
+      <c r="H19" s="126"/>
+      <c r="I19" s="176"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="152"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="130">
+        <v>20</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="113">
+        <v>4300</v>
+      </c>
+      <c r="H20" s="126"/>
+      <c r="I20" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="130"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="113">
+        <v>6900</v>
+      </c>
+      <c r="H21" s="126"/>
+      <c r="I21" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="130"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="23">
+        <v>40</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="113">
+        <v>7100</v>
+      </c>
+      <c r="H22" s="126"/>
+      <c r="I22" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A23" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="152"/>
+      <c r="C23" s="150" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="130" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="130">
+        <v>20</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="32">
+        <v>3550</v>
+      </c>
+      <c r="H23" s="126"/>
+      <c r="I23" s="176"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A24" s="130"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="150"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="32">
+        <v>5950</v>
+      </c>
+      <c r="H24" s="126"/>
+      <c r="I24" s="176"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A25" s="130"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="23">
+        <v>40</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="32">
+        <v>6200</v>
+      </c>
+      <c r="H25" s="126"/>
+      <c r="I25" s="176"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="152"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="130">
+        <v>20</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="113">
+        <v>3700</v>
+      </c>
+      <c r="H26" s="126"/>
+      <c r="I26" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="130"/>
+      <c r="B27" s="152"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="113">
+        <v>6200</v>
+      </c>
+      <c r="H27" s="126"/>
+      <c r="I27" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="130"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="23">
+        <v>40</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="113">
+        <v>6500</v>
+      </c>
+      <c r="H28" s="126"/>
+      <c r="I28" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A29" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="152"/>
+      <c r="C29" s="150" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="130" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="130">
+        <v>20</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="32">
+        <v>5150</v>
+      </c>
+      <c r="H29" s="126"/>
+      <c r="I29" s="176"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A30" s="130"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="32">
+        <v>8150</v>
+      </c>
+      <c r="H30" s="126"/>
+      <c r="I30" s="176"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A31" s="130"/>
+      <c r="B31" s="152"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="23">
+        <v>40</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="32">
+        <v>8300</v>
+      </c>
+      <c r="H31" s="126"/>
+      <c r="I31" s="176"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="152"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="130">
+        <v>20</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="113">
+        <v>4800</v>
+      </c>
+      <c r="H32" s="126"/>
+      <c r="I32" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="130"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="113">
+        <v>8200</v>
+      </c>
+      <c r="H33" s="126"/>
+      <c r="I33" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="130"/>
+      <c r="B34" s="152"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="130"/>
+      <c r="E34" s="23">
+        <v>40</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="113">
+        <v>8400</v>
+      </c>
+      <c r="H34" s="126"/>
+      <c r="I34" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A35" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="152"/>
+      <c r="C35" s="150" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="130" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="130">
+        <v>20</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="32">
+        <v>7050</v>
+      </c>
+      <c r="H35" s="126"/>
+      <c r="I35" s="176"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A36" s="130"/>
+      <c r="B36" s="152"/>
+      <c r="C36" s="150"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="32">
+        <v>10150</v>
+      </c>
+      <c r="H36" s="126"/>
+      <c r="I36" s="176"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A37" s="130"/>
+      <c r="B37" s="152"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="130"/>
+      <c r="E37" s="23">
+        <v>40</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="32">
+        <v>10300</v>
+      </c>
+      <c r="H37" s="126"/>
+      <c r="I37" s="176"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="130" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="152"/>
+      <c r="C38" s="151" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="130" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="127">
+        <v>20</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G38" s="32">
+        <v>3950</v>
+      </c>
+      <c r="H38" s="126"/>
+      <c r="I38" s="128" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="130"/>
+      <c r="B39" s="152"/>
+      <c r="C39" s="150"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="23">
+        <v>40</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="32">
+        <v>6300</v>
+      </c>
+      <c r="H39" s="126"/>
+      <c r="I39" s="128" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A40" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="172" t="s">
+        <v>235</v>
+      </c>
+      <c r="C40" s="150" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="130" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="130">
+        <v>20</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="32">
+        <v>3150</v>
+      </c>
+      <c r="H40" s="126"/>
+      <c r="I40" s="176"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A41" s="130"/>
+      <c r="B41" s="152"/>
+      <c r="C41" s="150"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" s="32">
+        <v>5200</v>
+      </c>
+      <c r="H41" s="126"/>
+      <c r="I41" s="176"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A42" s="130"/>
+      <c r="B42" s="152"/>
+      <c r="C42" s="150"/>
+      <c r="D42" s="130"/>
+      <c r="E42" s="23">
+        <v>40</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="32">
+        <v>5500</v>
+      </c>
+      <c r="H42" s="126"/>
+      <c r="I42" s="176"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="152"/>
+      <c r="C43" s="150"/>
+      <c r="D43" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="130">
+        <v>20</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="113">
+        <v>3250</v>
+      </c>
+      <c r="H43" s="126"/>
+      <c r="I43" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="130"/>
+      <c r="B44" s="152"/>
+      <c r="C44" s="150"/>
+      <c r="D44" s="130"/>
+      <c r="E44" s="130"/>
+      <c r="F44" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="113">
+        <v>5300</v>
+      </c>
+      <c r="H44" s="126"/>
+      <c r="I44" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="130"/>
+      <c r="B45" s="152"/>
+      <c r="C45" s="150"/>
+      <c r="D45" s="130"/>
+      <c r="E45" s="23">
+        <v>40</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="113">
+        <v>5600</v>
+      </c>
+      <c r="H45" s="126"/>
+      <c r="I45" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="130" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="152"/>
+      <c r="C46" s="150"/>
+      <c r="D46" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="23">
+        <v>20</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="124">
+        <v>4100</v>
+      </c>
+      <c r="H46" s="126"/>
+      <c r="I46" s="128"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" s="130"/>
+      <c r="B47" s="152"/>
+      <c r="C47" s="150"/>
+      <c r="D47" s="130"/>
+      <c r="E47" s="23">
+        <v>40</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="124">
+        <v>4550</v>
+      </c>
+      <c r="H47" s="126"/>
+      <c r="I47" s="128"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" s="130" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" s="152"/>
+      <c r="C48" s="150"/>
+      <c r="D48" s="130" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="127">
+        <v>20</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="G48" s="32">
+        <v>4858</v>
+      </c>
+      <c r="H48" s="126"/>
+      <c r="I48" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49" s="130"/>
+      <c r="B49" s="152"/>
+      <c r="C49" s="150"/>
+      <c r="D49" s="130"/>
+      <c r="E49" s="23">
+        <v>40</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="G49" s="32">
+        <v>5885</v>
+      </c>
+      <c r="H49" s="126"/>
+      <c r="I49" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50" s="178" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="152"/>
+      <c r="C50" s="150"/>
+      <c r="D50" s="178" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="178">
+        <v>20</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="G50" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50" s="126"/>
+      <c r="I50" s="128" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51" s="178"/>
+      <c r="B51" s="152"/>
+      <c r="C51" s="150"/>
+      <c r="D51" s="178"/>
+      <c r="E51" s="178"/>
+      <c r="F51" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="G51" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H51" s="126"/>
+      <c r="I51" s="128"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52" s="178"/>
+      <c r="B52" s="152"/>
+      <c r="C52" s="150"/>
+      <c r="D52" s="178"/>
+      <c r="E52" s="23">
+        <v>40</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G52" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H52" s="126"/>
+      <c r="I52" s="128"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A53" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="152"/>
+      <c r="C53" s="150" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="130" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="130">
+        <v>20</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="32">
+        <v>3150</v>
+      </c>
+      <c r="H53" s="126"/>
+      <c r="I53" s="176"/>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A54" s="130"/>
+      <c r="B54" s="152"/>
+      <c r="C54" s="150"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="130"/>
+      <c r="F54" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="32">
+        <v>5200</v>
+      </c>
+      <c r="H54" s="126"/>
+      <c r="I54" s="176"/>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A55" s="130"/>
+      <c r="B55" s="152"/>
+      <c r="C55" s="150"/>
+      <c r="D55" s="130"/>
+      <c r="E55" s="23">
+        <v>40</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" s="32">
+        <v>5500</v>
+      </c>
+      <c r="H55" s="126"/>
+      <c r="I55" s="176"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="152"/>
+      <c r="C56" s="150"/>
+      <c r="D56" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="130">
+        <v>20</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="113">
+        <v>3250</v>
+      </c>
+      <c r="H56" s="126"/>
+      <c r="I56" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57" s="130"/>
+      <c r="B57" s="152"/>
+      <c r="C57" s="150"/>
+      <c r="D57" s="130"/>
+      <c r="E57" s="130"/>
+      <c r="F57" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="113">
+        <v>5300</v>
+      </c>
+      <c r="H57" s="126"/>
+      <c r="I57" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58" s="130"/>
+      <c r="B58" s="152"/>
+      <c r="C58" s="150"/>
+      <c r="D58" s="130"/>
+      <c r="E58" s="23">
+        <v>40</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="113">
+        <v>5600</v>
+      </c>
+      <c r="H58" s="126"/>
+      <c r="I58" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59" s="130" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="152"/>
+      <c r="C59" s="150"/>
+      <c r="D59" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="23">
+        <v>20</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" s="124">
+        <v>4700</v>
+      </c>
+      <c r="H59" s="126"/>
+      <c r="I59" s="128"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60" s="130"/>
+      <c r="B60" s="152"/>
+      <c r="C60" s="150"/>
+      <c r="D60" s="130"/>
+      <c r="E60" s="23">
+        <v>40</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="124">
+        <v>5100</v>
+      </c>
+      <c r="H60" s="126"/>
+      <c r="I60" s="128"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A61" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="152"/>
+      <c r="C61" s="150" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="130" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="130">
+        <v>20</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="32">
+        <v>3150</v>
+      </c>
+      <c r="H61" s="126"/>
+      <c r="I61" s="176"/>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A62" s="130"/>
+      <c r="B62" s="152"/>
+      <c r="C62" s="150"/>
+      <c r="D62" s="130"/>
+      <c r="E62" s="130"/>
+      <c r="F62" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="32">
+        <v>5200</v>
+      </c>
+      <c r="H62" s="126"/>
+      <c r="I62" s="176"/>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A63" s="130"/>
+      <c r="B63" s="152"/>
+      <c r="C63" s="150"/>
+      <c r="D63" s="130"/>
+      <c r="E63" s="23">
+        <v>40</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" s="32">
+        <v>5500</v>
+      </c>
+      <c r="H63" s="126"/>
+      <c r="I63" s="176"/>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A64" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="152"/>
+      <c r="C64" s="150" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="130" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="130">
+        <v>20</v>
+      </c>
+      <c r="F64" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="32">
+        <v>3300</v>
+      </c>
+      <c r="H64" s="126"/>
+      <c r="I64" s="176"/>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A65" s="130"/>
+      <c r="B65" s="152"/>
+      <c r="C65" s="150"/>
+      <c r="D65" s="130"/>
+      <c r="E65" s="130"/>
+      <c r="F65" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="32">
+        <v>5350</v>
+      </c>
+      <c r="H65" s="126"/>
+      <c r="I65" s="176"/>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A66" s="130"/>
+      <c r="B66" s="152"/>
+      <c r="C66" s="150"/>
+      <c r="D66" s="130"/>
+      <c r="E66" s="23">
+        <v>40</v>
+      </c>
+      <c r="F66" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" s="32">
+        <v>5600</v>
+      </c>
+      <c r="H66" s="126"/>
+      <c r="I66" s="176"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A67" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="152"/>
+      <c r="C67" s="150"/>
+      <c r="D67" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="130">
+        <v>20</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="113">
+        <v>3250</v>
+      </c>
+      <c r="H67" s="126"/>
+      <c r="I67" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A68" s="130"/>
+      <c r="B68" s="152"/>
+      <c r="C68" s="150"/>
+      <c r="D68" s="130"/>
+      <c r="E68" s="130"/>
+      <c r="F68" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="G68" s="113">
+        <v>5300</v>
+      </c>
+      <c r="H68" s="126"/>
+      <c r="I68" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A69" s="130"/>
+      <c r="B69" s="152"/>
+      <c r="C69" s="150"/>
+      <c r="D69" s="130"/>
+      <c r="E69" s="23">
+        <v>40</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" s="113">
+        <v>5600</v>
+      </c>
+      <c r="H69" s="126"/>
+      <c r="I69" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A70" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="152"/>
+      <c r="C70" s="150" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70" s="130" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="130">
+        <v>20</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="32">
+        <v>3150</v>
+      </c>
+      <c r="H70" s="126"/>
+      <c r="I70" s="176"/>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A71" s="130"/>
+      <c r="B71" s="152"/>
+      <c r="C71" s="150"/>
+      <c r="D71" s="130"/>
+      <c r="E71" s="130"/>
+      <c r="F71" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" s="32">
+        <v>5200</v>
+      </c>
+      <c r="H71" s="126"/>
+      <c r="I71" s="176"/>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A72" s="130"/>
+      <c r="B72" s="152"/>
+      <c r="C72" s="150"/>
+      <c r="D72" s="130"/>
+      <c r="E72" s="23">
+        <v>40</v>
+      </c>
+      <c r="F72" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" s="32">
+        <v>5500</v>
+      </c>
+      <c r="H72" s="126"/>
+      <c r="I72" s="176"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A73" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="152"/>
+      <c r="C73" s="150"/>
+      <c r="D73" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="130">
+        <v>20</v>
+      </c>
+      <c r="F73" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="113">
+        <v>3250</v>
+      </c>
+      <c r="H73" s="126"/>
+      <c r="I73" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A74" s="130"/>
+      <c r="B74" s="152"/>
+      <c r="C74" s="150"/>
+      <c r="D74" s="130"/>
+      <c r="E74" s="130"/>
+      <c r="F74" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="G74" s="113">
+        <v>5300</v>
+      </c>
+      <c r="H74" s="126"/>
+      <c r="I74" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A75" s="130"/>
+      <c r="B75" s="152"/>
+      <c r="C75" s="150"/>
+      <c r="D75" s="130"/>
+      <c r="E75" s="23">
+        <v>40</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G75" s="113">
+        <v>5600</v>
+      </c>
+      <c r="H75" s="126"/>
+      <c r="I75" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A76" s="130" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" s="152"/>
+      <c r="C76" s="150"/>
+      <c r="D76" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" s="23">
+        <v>20</v>
+      </c>
+      <c r="F76" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G76" s="124">
+        <v>4700</v>
+      </c>
+      <c r="H76" s="126"/>
+      <c r="I76" s="128"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A77" s="130"/>
+      <c r="B77" s="152"/>
+      <c r="C77" s="150"/>
+      <c r="D77" s="130"/>
+      <c r="E77" s="23">
+        <v>40</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" s="124">
+        <v>5100</v>
+      </c>
+      <c r="H77" s="126"/>
+      <c r="I77" s="128"/>
+    </row>
+    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A78" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="152"/>
+      <c r="C78" s="150" t="s">
+        <v>40</v>
+      </c>
+      <c r="D78" s="130" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="130">
+        <v>20</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="32">
+        <v>3950</v>
+      </c>
+      <c r="H78" s="126"/>
+      <c r="I78" s="176"/>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A79" s="130"/>
+      <c r="B79" s="152"/>
+      <c r="C79" s="150"/>
+      <c r="D79" s="130"/>
+      <c r="E79" s="130"/>
+      <c r="F79" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" s="32">
+        <v>6050</v>
+      </c>
+      <c r="H79" s="126"/>
+      <c r="I79" s="176"/>
+    </row>
+    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A80" s="130"/>
+      <c r="B80" s="152"/>
+      <c r="C80" s="150"/>
+      <c r="D80" s="130"/>
+      <c r="E80" s="23">
+        <v>40</v>
+      </c>
+      <c r="F80" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G80" s="32">
+        <v>6300</v>
+      </c>
+      <c r="H80" s="126"/>
+      <c r="I80" s="176"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A81" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="152"/>
+      <c r="C81" s="150"/>
+      <c r="D81" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" s="130">
+        <v>20</v>
+      </c>
+      <c r="F81" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="113">
+        <v>3800</v>
+      </c>
+      <c r="H81" s="126"/>
+      <c r="I81" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A82" s="130"/>
+      <c r="B82" s="152"/>
+      <c r="C82" s="150"/>
+      <c r="D82" s="130"/>
+      <c r="E82" s="130"/>
+      <c r="F82" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="G82" s="113">
+        <v>5900</v>
+      </c>
+      <c r="H82" s="126"/>
+      <c r="I82" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A83" s="130"/>
+      <c r="B83" s="152"/>
+      <c r="C83" s="150"/>
+      <c r="D83" s="130"/>
+      <c r="E83" s="23">
+        <v>40</v>
+      </c>
+      <c r="F83" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" s="113">
+        <v>6100</v>
+      </c>
+      <c r="H83" s="126"/>
+      <c r="I83" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A84" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="172" t="s">
+        <v>236</v>
+      </c>
+      <c r="C84" s="150" t="s">
+        <v>103</v>
+      </c>
+      <c r="D84" s="130" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="130">
+        <v>20</v>
+      </c>
+      <c r="F84" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="32">
+        <v>3150</v>
+      </c>
+      <c r="H84" s="126"/>
+      <c r="I84" s="179"/>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A85" s="130"/>
+      <c r="B85" s="152"/>
+      <c r="C85" s="150"/>
+      <c r="D85" s="130"/>
+      <c r="E85" s="130"/>
+      <c r="F85" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" s="32">
+        <v>5150</v>
+      </c>
+      <c r="H85" s="126"/>
+      <c r="I85" s="176"/>
+    </row>
+    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A86" s="130"/>
+      <c r="B86" s="152"/>
+      <c r="C86" s="150"/>
+      <c r="D86" s="130"/>
+      <c r="E86" s="23">
+        <v>40</v>
+      </c>
+      <c r="F86" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G86" s="32">
+        <v>5350</v>
+      </c>
+      <c r="H86" s="126"/>
+      <c r="I86" s="176"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A87" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="152"/>
+      <c r="C87" s="150"/>
+      <c r="D87" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" s="130">
+        <v>20</v>
+      </c>
+      <c r="F87" s="127" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="32">
+        <v>3050</v>
+      </c>
+      <c r="H87" s="126"/>
+      <c r="I87" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A88" s="130"/>
+      <c r="B88" s="152"/>
+      <c r="C88" s="150"/>
+      <c r="D88" s="130"/>
+      <c r="E88" s="130"/>
+      <c r="F88" s="127" t="s">
+        <v>120</v>
+      </c>
+      <c r="G88" s="32">
+        <v>5000</v>
+      </c>
+      <c r="H88" s="126"/>
+      <c r="I88" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A89" s="130"/>
+      <c r="B89" s="152"/>
+      <c r="C89" s="150"/>
+      <c r="D89" s="130"/>
+      <c r="E89" s="127">
+        <v>40</v>
+      </c>
+      <c r="F89" s="127" t="s">
+        <v>19</v>
+      </c>
+      <c r="G89" s="32">
+        <v>5300</v>
+      </c>
+      <c r="H89" s="126"/>
+      <c r="I89" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A90" s="130" t="s">
+        <v>31</v>
+      </c>
+      <c r="B90" s="152"/>
+      <c r="C90" s="150"/>
+      <c r="D90" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="127">
+        <v>20</v>
+      </c>
+      <c r="F90" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" s="32">
+        <v>3150</v>
+      </c>
+      <c r="H90" s="126"/>
+      <c r="I90" s="128"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A91" s="130"/>
+      <c r="B91" s="152"/>
+      <c r="C91" s="150"/>
+      <c r="D91" s="130"/>
+      <c r="E91" s="127">
+        <v>40</v>
+      </c>
+      <c r="F91" s="127" t="s">
+        <v>32</v>
+      </c>
+      <c r="G91" s="124">
+        <v>3700</v>
+      </c>
+      <c r="H91" s="126"/>
+      <c r="I91" s="128"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A92" s="130" t="s">
+        <v>31</v>
+      </c>
+      <c r="B92" s="152"/>
+      <c r="C92" s="150"/>
+      <c r="D92" s="130" t="s">
+        <v>33</v>
+      </c>
+      <c r="E92" s="127">
+        <v>20</v>
+      </c>
+      <c r="F92" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H92" s="126"/>
+      <c r="I92" s="128" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A93" s="130"/>
+      <c r="B93" s="152"/>
+      <c r="C93" s="150"/>
+      <c r="D93" s="130"/>
+      <c r="E93" s="130">
+        <v>40</v>
+      </c>
+      <c r="F93" s="127" t="s">
+        <v>43</v>
+      </c>
+      <c r="G93" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H93" s="126"/>
+      <c r="I93" s="128"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A94" s="130"/>
+      <c r="B94" s="152"/>
+      <c r="C94" s="150"/>
+      <c r="D94" s="130"/>
+      <c r="E94" s="130"/>
+      <c r="F94" s="127" t="s">
+        <v>44</v>
+      </c>
+      <c r="G94" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H94" s="126"/>
+      <c r="I94" s="128"/>
+    </row>
+    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A95" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" s="152"/>
+      <c r="C95" s="150" t="s">
+        <v>45</v>
+      </c>
+      <c r="D95" s="130" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="130">
+        <v>20</v>
+      </c>
+      <c r="F95" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" s="32">
+        <v>3000</v>
+      </c>
+      <c r="H95" s="126"/>
+      <c r="I95" s="176"/>
+    </row>
+    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A96" s="130"/>
+      <c r="B96" s="152"/>
+      <c r="C96" s="150"/>
+      <c r="D96" s="130"/>
+      <c r="E96" s="130"/>
+      <c r="F96" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" s="32">
+        <v>4600</v>
+      </c>
+      <c r="H96" s="126"/>
+      <c r="I96" s="176"/>
+    </row>
+    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A97" s="130"/>
+      <c r="B97" s="152"/>
+      <c r="C97" s="150"/>
+      <c r="D97" s="130"/>
+      <c r="E97" s="23">
+        <v>40</v>
+      </c>
+      <c r="F97" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" s="32">
+        <v>4900</v>
+      </c>
+      <c r="H97" s="126"/>
+      <c r="I97" s="176"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A98" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" s="152"/>
+      <c r="C98" s="150"/>
+      <c r="D98" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" s="130">
+        <v>20</v>
+      </c>
+      <c r="F98" s="127" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="32">
+        <v>2800</v>
+      </c>
+      <c r="H98" s="126"/>
+      <c r="I98" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A99" s="130"/>
+      <c r="B99" s="152"/>
+      <c r="C99" s="150"/>
+      <c r="D99" s="130"/>
+      <c r="E99" s="130"/>
+      <c r="F99" s="127" t="s">
+        <v>120</v>
+      </c>
+      <c r="G99" s="32">
+        <v>4850</v>
+      </c>
+      <c r="H99" s="126"/>
+      <c r="I99" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A100" s="130"/>
+      <c r="B100" s="152"/>
+      <c r="C100" s="150"/>
+      <c r="D100" s="130"/>
+      <c r="E100" s="127">
+        <v>40</v>
+      </c>
+      <c r="F100" s="127" t="s">
+        <v>19</v>
+      </c>
+      <c r="G100" s="32">
+        <v>5100</v>
+      </c>
+      <c r="H100" s="126"/>
+      <c r="I100" s="128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A101" s="130" t="s">
+        <v>125</v>
+      </c>
+      <c r="B101" s="152"/>
+      <c r="C101" s="150"/>
+      <c r="D101" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="127">
+        <v>20</v>
+      </c>
+      <c r="F101" s="127" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" s="32">
+        <v>3350</v>
+      </c>
+      <c r="H101" s="126"/>
+      <c r="I101" s="128"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A102" s="130"/>
+      <c r="B102" s="152"/>
+      <c r="C102" s="150"/>
+      <c r="D102" s="130"/>
+      <c r="E102" s="127">
+        <v>40</v>
+      </c>
+      <c r="F102" s="127" t="s">
+        <v>32</v>
+      </c>
+      <c r="G102" s="124">
+        <v>3900</v>
+      </c>
+      <c r="H102" s="126"/>
+      <c r="I102" s="128"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A103" s="130" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" s="172" t="s">
+        <v>237</v>
+      </c>
+      <c r="C103" s="173" t="s">
+        <v>242</v>
+      </c>
+      <c r="D103" s="130" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="130">
+        <v>20</v>
+      </c>
+      <c r="F103" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="G103" s="32">
+        <v>725</v>
+      </c>
+      <c r="H103" s="126"/>
+      <c r="I103" s="128" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A104" s="130"/>
+      <c r="B104" s="152"/>
+      <c r="C104" s="150"/>
+      <c r="D104" s="130"/>
+      <c r="E104" s="130"/>
+      <c r="F104" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="G104" s="32">
+        <v>1090</v>
+      </c>
+      <c r="H104" s="126"/>
+      <c r="I104" s="128" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A105" s="130"/>
+      <c r="B105" s="152"/>
+      <c r="C105" s="150"/>
+      <c r="D105" s="130"/>
+      <c r="E105" s="178">
+        <v>40</v>
+      </c>
+      <c r="F105" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="G105" s="32">
+        <v>1200</v>
+      </c>
+      <c r="H105" s="126"/>
+      <c r="I105" s="128" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A106" s="130"/>
+      <c r="B106" s="152"/>
+      <c r="C106" s="150"/>
+      <c r="D106" s="130"/>
+      <c r="E106" s="178"/>
+      <c r="F106" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="G106" s="32">
+        <v>1300</v>
+      </c>
+      <c r="H106" s="126"/>
+      <c r="I106" s="128" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="130" t="s">
+        <v>20</v>
+      </c>
+      <c r="B107" s="152"/>
+      <c r="C107" s="150"/>
+      <c r="D107" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107" s="180">
+        <v>20</v>
+      </c>
+      <c r="F107" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="G107" s="32">
+        <v>800</v>
+      </c>
+      <c r="H107" s="126"/>
+      <c r="I107" s="128" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="130"/>
+      <c r="B108" s="152"/>
+      <c r="C108" s="150"/>
+      <c r="D108" s="130"/>
+      <c r="E108" s="178">
+        <v>40</v>
+      </c>
+      <c r="F108" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="G108" s="32">
+        <v>1150</v>
+      </c>
+      <c r="H108" s="126"/>
+      <c r="I108" s="128" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="130"/>
+      <c r="B109" s="152"/>
+      <c r="C109" s="150"/>
+      <c r="D109" s="130"/>
+      <c r="E109" s="178"/>
+      <c r="F109" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="G109" s="32">
+        <v>1175</v>
+      </c>
+      <c r="H109" s="126"/>
+      <c r="I109" s="128" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A110" s="130" t="s">
+        <v>20</v>
+      </c>
+      <c r="B110" s="161" t="s">
+        <v>104</v>
+      </c>
+      <c r="C110" s="150" t="s">
+        <v>105</v>
+      </c>
+      <c r="D110" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110" s="130">
+        <v>20</v>
+      </c>
+      <c r="F110" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="32">
+        <v>4300</v>
+      </c>
+      <c r="H110" s="126"/>
+      <c r="I110" s="128" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A111" s="130"/>
+      <c r="B111" s="161"/>
+      <c r="C111" s="150"/>
+      <c r="D111" s="130"/>
+      <c r="E111" s="130"/>
+      <c r="F111" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G111" s="32">
+        <v>5800</v>
+      </c>
+      <c r="H111" s="126"/>
+      <c r="I111" s="128" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A112" s="130"/>
+      <c r="B112" s="161"/>
+      <c r="C112" s="150"/>
+      <c r="D112" s="130"/>
+      <c r="E112" s="130"/>
+      <c r="F112" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G112" s="32">
+        <v>6700</v>
+      </c>
+      <c r="H112" s="126"/>
+      <c r="I112" s="128" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A113" s="130"/>
+      <c r="B113" s="161"/>
+      <c r="C113" s="150"/>
+      <c r="D113" s="130"/>
+      <c r="E113" s="23">
+        <v>40</v>
+      </c>
+      <c r="F113" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G113" s="32">
+        <v>7000</v>
+      </c>
+      <c r="H113" s="126"/>
+      <c r="I113" s="128" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A114" s="130" t="s">
+        <v>20</v>
+      </c>
+      <c r="B114" s="175" t="s">
+        <v>238</v>
+      </c>
+      <c r="C114" s="150" t="s">
+        <v>108</v>
+      </c>
+      <c r="D114" s="130" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="130">
+        <v>20</v>
+      </c>
+      <c r="F114" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G114" s="32">
+        <v>1850</v>
+      </c>
+      <c r="H114" s="126"/>
+      <c r="I114" s="176"/>
+    </row>
+    <row r="115" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A115" s="130"/>
+      <c r="B115" s="161"/>
+      <c r="C115" s="150"/>
+      <c r="D115" s="130"/>
+      <c r="E115" s="130"/>
+      <c r="F115" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G115" s="32">
+        <v>2150</v>
+      </c>
+      <c r="H115" s="126"/>
+      <c r="I115" s="176"/>
+    </row>
+    <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A116" s="130"/>
+      <c r="B116" s="161"/>
+      <c r="C116" s="150"/>
+      <c r="D116" s="130"/>
+      <c r="E116" s="130"/>
+      <c r="F116" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G116" s="32">
+        <v>2650</v>
+      </c>
+      <c r="H116" s="126"/>
+      <c r="I116" s="176"/>
+    </row>
+    <row r="117" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A117" s="130"/>
+      <c r="B117" s="161"/>
+      <c r="C117" s="150"/>
+      <c r="D117" s="130"/>
+      <c r="E117" s="130"/>
+      <c r="F117" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="G117" s="32">
+        <v>3150</v>
+      </c>
+      <c r="H117" s="126"/>
+      <c r="I117" s="176"/>
+    </row>
+    <row r="118" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A118" s="130"/>
+      <c r="B118" s="161"/>
+      <c r="C118" s="150"/>
+      <c r="D118" s="130"/>
+      <c r="E118" s="127">
+        <v>40</v>
+      </c>
+      <c r="F118" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="G118" s="32">
+        <v>3400</v>
+      </c>
+      <c r="H118" s="126"/>
+      <c r="I118" s="176"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A119" s="130" t="s">
+        <v>20</v>
+      </c>
+      <c r="B119" s="161"/>
+      <c r="C119" s="150"/>
+      <c r="D119" s="130" t="s">
+        <v>129</v>
+      </c>
+      <c r="E119" s="130">
+        <v>20</v>
+      </c>
+      <c r="F119" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G119" s="32">
+        <v>1700</v>
+      </c>
+      <c r="H119" s="126"/>
+      <c r="I119" s="128" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A120" s="130"/>
+      <c r="B120" s="161"/>
+      <c r="C120" s="150"/>
+      <c r="D120" s="130"/>
+      <c r="E120" s="130"/>
+      <c r="F120" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G120" s="32">
+        <v>2025</v>
+      </c>
+      <c r="H120" s="126"/>
+      <c r="I120" s="128" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A121" s="130"/>
+      <c r="B121" s="161"/>
+      <c r="C121" s="150"/>
+      <c r="D121" s="130"/>
+      <c r="E121" s="130"/>
+      <c r="F121" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G121" s="32">
+        <v>2475</v>
+      </c>
+      <c r="H121" s="126"/>
+      <c r="I121" s="128" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A122" s="130"/>
+      <c r="B122" s="161"/>
+      <c r="C122" s="150"/>
+      <c r="D122" s="130"/>
+      <c r="E122" s="130"/>
+      <c r="F122" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G122" s="32">
+        <v>2950</v>
+      </c>
+      <c r="H122" s="126"/>
+      <c r="I122" s="128" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A123" s="130"/>
+      <c r="B123" s="161"/>
+      <c r="C123" s="150"/>
+      <c r="D123" s="130"/>
+      <c r="E123" s="130"/>
+      <c r="F123" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G123" s="32">
+        <v>2950</v>
+      </c>
+      <c r="H123" s="126"/>
+      <c r="I123" s="128" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A124" s="130"/>
+      <c r="B124" s="161"/>
+      <c r="C124" s="150"/>
+      <c r="D124" s="130"/>
+      <c r="E124" s="130"/>
+      <c r="F124" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G124" s="32">
+        <v>3000</v>
+      </c>
+      <c r="H124" s="126"/>
+      <c r="I124" s="128" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A125" s="130"/>
+      <c r="B125" s="161"/>
+      <c r="C125" s="150"/>
+      <c r="D125" s="130"/>
+      <c r="E125" s="23">
+        <v>40</v>
+      </c>
+      <c r="F125" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G125" s="32">
+        <v>3150</v>
+      </c>
+      <c r="H125" s="126"/>
+      <c r="I125" s="128" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A126" s="130" t="s">
+        <v>34</v>
+      </c>
+      <c r="B126" s="161" t="s">
+        <v>60</v>
+      </c>
+      <c r="C126" s="151" t="s">
+        <v>109</v>
+      </c>
+      <c r="D126" s="130" t="s">
+        <v>33</v>
+      </c>
+      <c r="E126" s="178">
+        <v>20</v>
+      </c>
+      <c r="F126" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="G126" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="H126" s="126"/>
+      <c r="I126" s="128" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A127" s="130"/>
+      <c r="B127" s="161"/>
+      <c r="C127" s="150"/>
+      <c r="D127" s="130"/>
+      <c r="E127" s="178"/>
+      <c r="F127" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="G127" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="H127" s="126"/>
+      <c r="I127" s="128" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A128" s="130"/>
+      <c r="B128" s="161"/>
+      <c r="C128" s="150"/>
+      <c r="D128" s="130"/>
+      <c r="E128" s="178"/>
+      <c r="F128" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G128" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="H128" s="126"/>
+      <c r="I128" s="128"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A129" s="130"/>
+      <c r="B129" s="161"/>
+      <c r="C129" s="150"/>
+      <c r="D129" s="130"/>
+      <c r="E129" s="127">
+        <v>40</v>
+      </c>
+      <c r="F129" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G129" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="H129" s="126"/>
+      <c r="I129" s="128"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A130" s="130" t="s">
+        <v>34</v>
+      </c>
+      <c r="B130" s="161"/>
+      <c r="C130" s="150"/>
+      <c r="D130" s="130" t="s">
+        <v>63</v>
+      </c>
+      <c r="E130" s="130">
+        <v>20</v>
+      </c>
+      <c r="F130" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G130" s="32">
+        <v>2050</v>
+      </c>
+      <c r="H130" s="126"/>
+      <c r="I130" s="186" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A131" s="130"/>
+      <c r="B131" s="161"/>
+      <c r="C131" s="150"/>
+      <c r="D131" s="130"/>
+      <c r="E131" s="130"/>
+      <c r="F131" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G131" s="32">
+        <v>1050</v>
+      </c>
+      <c r="H131" s="126"/>
+      <c r="I131" s="186" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A132" s="130"/>
+      <c r="B132" s="161"/>
+      <c r="C132" s="150"/>
+      <c r="D132" s="130"/>
+      <c r="E132" s="130"/>
+      <c r="F132" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G132" s="32">
+        <v>2065</v>
+      </c>
+      <c r="H132" s="126"/>
+      <c r="I132" s="186" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A133" s="130"/>
+      <c r="B133" s="161"/>
+      <c r="C133" s="150"/>
+      <c r="D133" s="130"/>
+      <c r="E133" s="130">
+        <v>40</v>
+      </c>
+      <c r="F133" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G133" s="32">
+        <v>1450</v>
+      </c>
+      <c r="H133" s="126"/>
+      <c r="I133" s="186" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A134" s="130"/>
+      <c r="B134" s="161"/>
+      <c r="C134" s="150"/>
+      <c r="D134" s="130"/>
+      <c r="E134" s="130"/>
+      <c r="F134" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G134" s="32">
+        <v>2050</v>
+      </c>
+      <c r="H134" s="126"/>
+      <c r="I134" s="186" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A135" s="130" t="s">
+        <v>31</v>
+      </c>
+      <c r="B135" s="172" t="s">
+        <v>239</v>
+      </c>
+      <c r="C135" s="150" t="s">
+        <v>110</v>
+      </c>
+      <c r="D135" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E135" s="127">
+        <v>20</v>
+      </c>
+      <c r="F135" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G135" s="117">
+        <v>2750</v>
+      </c>
+      <c r="H135" s="126"/>
+      <c r="I135" s="128" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A136" s="130"/>
+      <c r="B136" s="152"/>
+      <c r="C136" s="150"/>
+      <c r="D136" s="130"/>
+      <c r="E136" s="127">
+        <v>40</v>
+      </c>
+      <c r="F136" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G136" s="32">
+        <v>3280</v>
+      </c>
+      <c r="H136" s="126"/>
+      <c r="I136" s="128" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A137" s="130" t="s">
+        <v>34</v>
+      </c>
+      <c r="B137" s="152"/>
+      <c r="C137" s="150"/>
+      <c r="D137" s="130" t="s">
+        <v>33</v>
+      </c>
+      <c r="E137" s="178">
+        <v>20</v>
+      </c>
+      <c r="F137" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="G137" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="H137" s="126"/>
+      <c r="I137" s="128" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A138" s="130"/>
+      <c r="B138" s="152"/>
+      <c r="C138" s="150"/>
+      <c r="D138" s="130"/>
+      <c r="E138" s="178"/>
+      <c r="F138" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="G138" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="H138" s="126"/>
+      <c r="I138" s="128" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A139" s="130"/>
+      <c r="B139" s="152"/>
+      <c r="C139" s="150"/>
+      <c r="D139" s="130"/>
+      <c r="E139" s="178"/>
+      <c r="F139" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="G139" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="H139" s="126"/>
+      <c r="I139" s="128"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A140" s="130"/>
+      <c r="B140" s="152"/>
+      <c r="C140" s="150"/>
+      <c r="D140" s="130"/>
+      <c r="E140" s="127">
+        <v>40</v>
+      </c>
+      <c r="F140" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="G140" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="H140" s="126"/>
+      <c r="I140" s="128"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A141" s="130" t="s">
+        <v>31</v>
+      </c>
+      <c r="B141" s="152"/>
+      <c r="C141" s="150"/>
+      <c r="D141" s="130" t="s">
+        <v>63</v>
+      </c>
+      <c r="E141" s="127">
+        <v>20</v>
+      </c>
+      <c r="F141" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G141" s="32">
+        <v>3285</v>
+      </c>
+      <c r="H141" s="126"/>
+      <c r="I141" s="186" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A142" s="130"/>
+      <c r="B142" s="152"/>
+      <c r="C142" s="150"/>
+      <c r="D142" s="130"/>
+      <c r="E142" s="127">
+        <v>40</v>
+      </c>
+      <c r="F142" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G142" s="32">
+        <v>3765</v>
+      </c>
+      <c r="H142" s="126"/>
+      <c r="I142" s="186" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A143" s="130" t="s">
+        <v>31</v>
+      </c>
+      <c r="B143" s="152"/>
+      <c r="C143" s="150" t="s">
+        <v>118</v>
+      </c>
+      <c r="D143" s="178" t="s">
+        <v>33</v>
+      </c>
+      <c r="E143" s="178">
+        <v>20</v>
+      </c>
+      <c r="F143" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G143" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H143" s="126"/>
+      <c r="I143" s="128" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A144" s="130"/>
+      <c r="B144" s="152"/>
+      <c r="C144" s="150"/>
+      <c r="D144" s="178"/>
+      <c r="E144" s="178"/>
+      <c r="F144" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G144" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H144" s="126"/>
+      <c r="I144" s="128"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A145" s="130"/>
+      <c r="B145" s="152"/>
+      <c r="C145" s="150"/>
+      <c r="D145" s="178"/>
+      <c r="E145" s="23">
+        <v>40</v>
+      </c>
+      <c r="F145" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G145" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H145" s="126"/>
+      <c r="I145" s="128"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A146" s="130" t="s">
+        <v>34</v>
+      </c>
+      <c r="B146" s="152"/>
+      <c r="C146" s="150"/>
+      <c r="D146" s="178" t="s">
+        <v>33</v>
+      </c>
+      <c r="E146" s="178">
+        <v>20</v>
+      </c>
+      <c r="F146" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G146" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H146" s="126"/>
+      <c r="I146" s="128" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A147" s="130"/>
+      <c r="B147" s="152"/>
+      <c r="C147" s="150"/>
+      <c r="D147" s="178"/>
+      <c r="E147" s="178"/>
+      <c r="F147" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="G147" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H147" s="126"/>
+      <c r="I147" s="128" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A148" s="130"/>
+      <c r="B148" s="152"/>
+      <c r="C148" s="150"/>
+      <c r="D148" s="178"/>
+      <c r="E148" s="178"/>
+      <c r="F148" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="G148" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H148" s="126"/>
+      <c r="I148" s="128"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A149" s="130"/>
+      <c r="B149" s="152"/>
+      <c r="C149" s="150"/>
+      <c r="D149" s="178"/>
+      <c r="E149" s="23">
+        <v>40</v>
+      </c>
+      <c r="F149" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="G149" s="32">
+        <v>5877</v>
+      </c>
+      <c r="H149" s="126"/>
+      <c r="I149" s="128"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A150" s="130" t="s">
+        <v>31</v>
+      </c>
+      <c r="B150" s="152"/>
+      <c r="C150" s="150"/>
+      <c r="D150" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E150" s="127">
+        <v>20</v>
+      </c>
+      <c r="F150" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G150" s="124">
+        <v>3900</v>
+      </c>
+      <c r="H150" s="126"/>
+      <c r="I150" s="128" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A151" s="130"/>
+      <c r="B151" s="152"/>
+      <c r="C151" s="150"/>
+      <c r="D151" s="130"/>
+      <c r="E151" s="127">
+        <v>40</v>
+      </c>
+      <c r="F151" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G151" s="124">
+        <v>4400</v>
+      </c>
+      <c r="H151" s="126"/>
+      <c r="I151" s="128" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A152" s="130" t="s">
+        <v>34</v>
+      </c>
+      <c r="B152" s="152"/>
+      <c r="C152" s="150" t="s">
+        <v>69</v>
+      </c>
+      <c r="D152" s="130" t="s">
+        <v>33</v>
+      </c>
+      <c r="E152" s="127">
+        <v>20</v>
+      </c>
+      <c r="F152" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G152" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H152" s="126"/>
+      <c r="I152" s="128" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A153" s="130"/>
+      <c r="B153" s="152"/>
+      <c r="C153" s="150"/>
+      <c r="D153" s="130"/>
+      <c r="E153" s="127">
+        <v>40</v>
+      </c>
+      <c r="F153" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G153" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H153" s="126"/>
+      <c r="I153" s="128"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A154" s="130" t="s">
+        <v>31</v>
+      </c>
+      <c r="B154" s="152"/>
+      <c r="C154" s="150"/>
+      <c r="D154" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154" s="127">
+        <v>20</v>
+      </c>
+      <c r="F154" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G154" s="124">
+        <v>3550</v>
+      </c>
+      <c r="H154" s="126"/>
+      <c r="I154" s="128" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A155" s="130"/>
+      <c r="B155" s="152"/>
+      <c r="C155" s="150"/>
+      <c r="D155" s="130"/>
+      <c r="E155" s="127">
+        <v>40</v>
+      </c>
+      <c r="F155" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G155" s="124">
+        <v>4000</v>
+      </c>
+      <c r="H155" s="126"/>
+      <c r="I155" s="128" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A156" s="130" t="s">
+        <v>31</v>
+      </c>
+      <c r="B156" s="152"/>
+      <c r="C156" s="150" t="s">
+        <v>72</v>
+      </c>
+      <c r="D156" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="127">
+        <v>20</v>
+      </c>
+      <c r="F156" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G156" s="32">
+        <v>2230</v>
+      </c>
+      <c r="H156" s="126"/>
+      <c r="I156" s="128" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A157" s="130"/>
+      <c r="B157" s="152"/>
+      <c r="C157" s="150"/>
+      <c r="D157" s="130"/>
+      <c r="E157" s="127">
+        <v>40</v>
+      </c>
+      <c r="F157" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G157" s="32">
+        <v>2670</v>
+      </c>
+      <c r="H157" s="126"/>
+      <c r="I157" s="128" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A158" s="130" t="s">
+        <v>31</v>
+      </c>
+      <c r="B158" s="152"/>
+      <c r="C158" s="150" t="s">
+        <v>73</v>
+      </c>
+      <c r="D158" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E158" s="127">
+        <v>20</v>
+      </c>
+      <c r="F158" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G158" s="124">
+        <v>3350</v>
+      </c>
+      <c r="H158" s="126"/>
+      <c r="I158" s="128" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A159" s="130"/>
+      <c r="B159" s="152"/>
+      <c r="C159" s="150"/>
+      <c r="D159" s="130"/>
+      <c r="E159" s="127">
+        <v>40</v>
+      </c>
+      <c r="F159" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G159" s="124">
+        <v>3800</v>
+      </c>
+      <c r="H159" s="126"/>
+      <c r="I159" s="128" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A160" s="130" t="s">
+        <v>31</v>
+      </c>
+      <c r="B160" s="152"/>
+      <c r="C160" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="D160" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E160" s="127">
+        <v>20</v>
+      </c>
+      <c r="F160" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G160" s="124">
+        <v>3350</v>
+      </c>
+      <c r="H160" s="126"/>
+      <c r="I160" s="128" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A161" s="130"/>
+      <c r="B161" s="152"/>
+      <c r="C161" s="150"/>
+      <c r="D161" s="130"/>
+      <c r="E161" s="127">
+        <v>40</v>
+      </c>
+      <c r="F161" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G161" s="124">
+        <v>3800</v>
+      </c>
+      <c r="H161" s="126"/>
+      <c r="I161" s="128" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A162" s="130" t="s">
+        <v>135</v>
+      </c>
+      <c r="B162" s="175" t="s">
+        <v>240</v>
+      </c>
+      <c r="C162" s="150" t="s">
+        <v>112</v>
+      </c>
+      <c r="D162" s="130" t="s">
+        <v>121</v>
+      </c>
+      <c r="E162" s="130">
+        <v>20</v>
+      </c>
+      <c r="F162" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="G162" s="32">
+        <v>2260</v>
+      </c>
+      <c r="H162" s="126"/>
+      <c r="I162" s="44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A163" s="130"/>
+      <c r="B163" s="181"/>
+      <c r="C163" s="150"/>
+      <c r="D163" s="130"/>
+      <c r="E163" s="130"/>
+      <c r="F163" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G163" s="32">
+        <v>2750</v>
+      </c>
+      <c r="H163" s="126"/>
+      <c r="I163" s="44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A164" s="130"/>
+      <c r="B164" s="181"/>
+      <c r="C164" s="150"/>
+      <c r="D164" s="130"/>
+      <c r="E164" s="130"/>
+      <c r="F164" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="G164" s="32">
+        <v>2980</v>
+      </c>
+      <c r="H164" s="126"/>
+      <c r="I164" s="44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A165" s="130"/>
+      <c r="B165" s="181"/>
+      <c r="C165" s="150"/>
+      <c r="D165" s="130"/>
+      <c r="E165" s="130"/>
+      <c r="F165" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G165" s="32">
+        <v>3460</v>
+      </c>
+      <c r="H165" s="126"/>
+      <c r="I165" s="44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A166" s="130"/>
+      <c r="B166" s="181"/>
+      <c r="C166" s="150"/>
+      <c r="D166" s="130"/>
+      <c r="E166" s="23">
+        <v>40</v>
+      </c>
+      <c r="F166" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G166" s="32">
+        <v>4520</v>
+      </c>
+      <c r="H166" s="126"/>
+      <c r="I166" s="44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A167" s="181" t="s">
+        <v>164</v>
+      </c>
+      <c r="B167" s="181"/>
+      <c r="C167" s="150"/>
+      <c r="D167" s="181" t="s">
+        <v>174</v>
+      </c>
+      <c r="E167" s="32">
+        <v>20</v>
+      </c>
+      <c r="F167" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="G167" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="H167" s="162" t="s">
+        <v>177</v>
+      </c>
+      <c r="I167" s="44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A168" s="181"/>
+      <c r="B168" s="181"/>
+      <c r="C168" s="150"/>
+      <c r="D168" s="181"/>
+      <c r="E168" s="32">
+        <v>40</v>
+      </c>
+      <c r="F168" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="G168" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="H168" s="162"/>
+      <c r="I168" s="44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A169" s="130" t="s">
+        <v>135</v>
+      </c>
+      <c r="B169" s="181"/>
+      <c r="C169" s="150"/>
+      <c r="D169" s="181"/>
+      <c r="E169" s="182">
+        <v>20</v>
+      </c>
+      <c r="F169" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="G169" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="H169" s="162" t="s">
+        <v>178</v>
+      </c>
+      <c r="I169" s="44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A170" s="130"/>
+      <c r="B170" s="181"/>
+      <c r="C170" s="150"/>
+      <c r="D170" s="181"/>
+      <c r="E170" s="182"/>
+      <c r="F170" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="G170" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="H170" s="162"/>
+      <c r="I170" s="44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A171" s="130"/>
+      <c r="B171" s="181"/>
+      <c r="C171" s="150"/>
+      <c r="D171" s="181"/>
+      <c r="E171" s="182"/>
+      <c r="F171" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="G171" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="H171" s="162"/>
+      <c r="I171" s="44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A172" s="130"/>
+      <c r="B172" s="181"/>
+      <c r="C172" s="150"/>
+      <c r="D172" s="181"/>
+      <c r="E172" s="182"/>
+      <c r="F172" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="G172" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="H172" s="162"/>
+      <c r="I172" s="44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A173" s="130"/>
+      <c r="B173" s="181"/>
+      <c r="C173" s="150"/>
+      <c r="D173" s="181"/>
+      <c r="E173" s="182"/>
+      <c r="F173" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="G173" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="H173" s="162"/>
+      <c r="I173" s="44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A174" s="130"/>
+      <c r="B174" s="181"/>
+      <c r="C174" s="150"/>
+      <c r="D174" s="181"/>
+      <c r="E174" s="182"/>
+      <c r="F174" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="G174" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="H174" s="162"/>
+      <c r="I174" s="44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A175" s="130"/>
+      <c r="B175" s="181"/>
+      <c r="C175" s="150"/>
+      <c r="D175" s="181"/>
+      <c r="E175" s="32">
+        <v>40</v>
+      </c>
+      <c r="F175" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="G175" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="H175" s="162"/>
+      <c r="I175" s="44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A176" s="130" t="s">
+        <v>140</v>
+      </c>
+      <c r="B176" s="173" t="s">
+        <v>241</v>
+      </c>
+      <c r="C176" s="183" t="s">
+        <v>159</v>
+      </c>
+      <c r="D176" s="130" t="s">
+        <v>121</v>
+      </c>
+      <c r="E176" s="130">
+        <v>20</v>
+      </c>
+      <c r="F176" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G176" s="32">
+        <v>2150</v>
+      </c>
+      <c r="H176" s="126"/>
+      <c r="I176" s="44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A177" s="130"/>
+      <c r="B177" s="161"/>
+      <c r="C177" s="183"/>
+      <c r="D177" s="130"/>
+      <c r="E177" s="130"/>
+      <c r="F177" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G177" s="32">
+        <v>2185</v>
+      </c>
+      <c r="H177" s="126"/>
+      <c r="I177" s="44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A178" s="130"/>
+      <c r="B178" s="161"/>
+      <c r="C178" s="183"/>
+      <c r="D178" s="130"/>
+      <c r="E178" s="130"/>
+      <c r="F178" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="G178" s="32">
+        <v>2550</v>
+      </c>
+      <c r="H178" s="126"/>
+      <c r="I178" s="44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A179" s="130"/>
+      <c r="B179" s="161"/>
+      <c r="C179" s="183"/>
+      <c r="D179" s="130"/>
+      <c r="E179" s="130"/>
+      <c r="F179" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="G179" s="32">
+        <v>3370</v>
+      </c>
+      <c r="H179" s="126"/>
+      <c r="I179" s="44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A180" s="130"/>
+      <c r="B180" s="161"/>
+      <c r="C180" s="183"/>
+      <c r="D180" s="130"/>
+      <c r="E180" s="178">
+        <v>40</v>
+      </c>
+      <c r="F180" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="G180" s="32">
+        <v>3940</v>
+      </c>
+      <c r="H180" s="126"/>
+      <c r="I180" s="44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A181" s="130"/>
+      <c r="B181" s="161"/>
+      <c r="C181" s="183"/>
+      <c r="D181" s="130"/>
+      <c r="E181" s="178"/>
+      <c r="F181" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="G181" s="32">
+        <v>4020</v>
+      </c>
+      <c r="H181" s="126"/>
+      <c r="I181" s="44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="202">
+    <mergeCell ref="H167:H168"/>
+    <mergeCell ref="E169:E174"/>
+    <mergeCell ref="A169:A175"/>
+    <mergeCell ref="H169:H175"/>
+    <mergeCell ref="B176:B181"/>
+    <mergeCell ref="C176:C181"/>
+    <mergeCell ref="D176:D181"/>
+    <mergeCell ref="E176:E179"/>
+    <mergeCell ref="A176:A181"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B162:B175"/>
+    <mergeCell ref="C162:C175"/>
+    <mergeCell ref="D162:D166"/>
+    <mergeCell ref="E162:E165"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="D167:D175"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="D156:D157"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="D158:D159"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="C152:C155"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="C143:C151"/>
+    <mergeCell ref="D143:D145"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="A143:A145"/>
+    <mergeCell ref="D146:D149"/>
+    <mergeCell ref="E146:E148"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="B135:B161"/>
+    <mergeCell ref="C135:C142"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="D137:D140"/>
+    <mergeCell ref="E137:E139"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="B126:B134"/>
+    <mergeCell ref="C126:C134"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="E126:E128"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="D130:D134"/>
+    <mergeCell ref="E130:E132"/>
+    <mergeCell ref="A130:A134"/>
+    <mergeCell ref="B114:B125"/>
+    <mergeCell ref="C114:C125"/>
+    <mergeCell ref="D114:D118"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="D119:D125"/>
+    <mergeCell ref="E119:E124"/>
+    <mergeCell ref="A119:A125"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B103:B109"/>
+    <mergeCell ref="C103:C109"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="D107:D109"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="C95:C102"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="B84:B102"/>
+    <mergeCell ref="C84:C94"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="C78:C83"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="C70:C77"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="C53:C60"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="B40:B83"/>
+    <mergeCell ref="C40:C52"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B11:B39"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="54" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2690,22 +6528,22 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="27" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="159" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="134" t="s">
+      <c r="D2" s="130" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="134" t="s">
+      <c r="F2" s="130" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="117">
@@ -2724,14 +6562,14 @@
       <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="151"/>
-      <c r="B3" s="149"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
+      <c r="A3" s="155"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
       <c r="E3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="134"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="117">
         <v>1025</v>
       </c>
@@ -2748,16 +6586,16 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" s="27" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="151"/>
-      <c r="B4" s="149"/>
-      <c r="C4" s="134"/>
+      <c r="A4" s="155"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="130"/>
       <c r="D4" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="134"/>
+      <c r="F4" s="130"/>
       <c r="G4" s="117">
         <v>1650</v>
       </c>
@@ -2774,18 +6612,18 @@
       <c r="K4" s="29"/>
     </row>
     <row r="5" spans="1:11" s="27" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="151"/>
-      <c r="B5" s="149"/>
-      <c r="C5" s="134" t="s">
+      <c r="A5" s="155"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="134" t="s">
+      <c r="D5" s="130" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="134" t="s">
+      <c r="F5" s="130" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="113">
@@ -2806,14 +6644,14 @@
       </c>
     </row>
     <row r="6" spans="1:11" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="151"/>
-      <c r="B6" s="149"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
+      <c r="A6" s="155"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
       <c r="E6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="134"/>
+      <c r="F6" s="130"/>
       <c r="G6" s="113">
         <v>1025</v>
       </c>
@@ -2832,16 +6670,16 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="151"/>
-      <c r="B7" s="149"/>
-      <c r="C7" s="134"/>
+      <c r="A7" s="155"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="130"/>
       <c r="D7" s="22" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="134"/>
+      <c r="F7" s="130"/>
       <c r="G7" s="117">
         <v>1850</v>
       </c>
@@ -2860,22 +6698,22 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="152" t="s">
+      <c r="A8" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="154" t="s">
+      <c r="B8" s="158" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="134" t="s">
+      <c r="C8" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="134" t="s">
+      <c r="D8" s="130" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="134" t="s">
+      <c r="F8" s="130" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="113">
@@ -2896,14 +6734,14 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="152"/>
-      <c r="B9" s="154"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
+      <c r="A9" s="156"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
       <c r="E9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="134"/>
+      <c r="F9" s="130"/>
       <c r="G9" s="113">
         <v>1025</v>
       </c>
@@ -2922,16 +6760,16 @@
       </c>
     </row>
     <row r="10" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="153"/>
-      <c r="B10" s="143"/>
-      <c r="C10" s="134"/>
+      <c r="A10" s="157"/>
+      <c r="B10" s="150"/>
+      <c r="C10" s="130"/>
       <c r="D10" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="134"/>
+      <c r="F10" s="130"/>
       <c r="G10" s="117">
         <v>1850</v>
       </c>
@@ -2950,22 +6788,22 @@
       </c>
     </row>
     <row r="11" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="142" t="s">
+      <c r="A11" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="143" t="s">
+      <c r="B11" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="134" t="s">
+      <c r="C11" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="134" t="s">
+      <c r="D11" s="130" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="134" t="s">
+      <c r="F11" s="130" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="117">
@@ -2984,14 +6822,14 @@
       <c r="K11" s="26"/>
     </row>
     <row r="12" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="142"/>
-      <c r="B12" s="143"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="134"/>
+      <c r="A12" s="152"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
       <c r="E12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="134"/>
+      <c r="F12" s="130"/>
       <c r="G12" s="117">
         <v>1025</v>
       </c>
@@ -3008,16 +6846,16 @@
       <c r="K12" s="28"/>
     </row>
     <row r="13" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="142"/>
-      <c r="B13" s="143"/>
-      <c r="C13" s="134"/>
+      <c r="A13" s="152"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="130"/>
       <c r="D13" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="134"/>
+      <c r="F13" s="130"/>
       <c r="G13" s="117">
         <v>1650</v>
       </c>
@@ -3034,18 +6872,18 @@
       <c r="K13" s="29"/>
     </row>
     <row r="14" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="142"/>
-      <c r="B14" s="143"/>
-      <c r="C14" s="134" t="s">
+      <c r="A14" s="152"/>
+      <c r="B14" s="150"/>
+      <c r="C14" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="134" t="s">
+      <c r="D14" s="130" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="134" t="s">
+      <c r="F14" s="130" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="113">
@@ -3066,14 +6904,14 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="142"/>
-      <c r="B15" s="143"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
+      <c r="A15" s="152"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
       <c r="E15" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="134"/>
+      <c r="F15" s="130"/>
       <c r="G15" s="113">
         <v>1025</v>
       </c>
@@ -3092,16 +6930,16 @@
       </c>
     </row>
     <row r="16" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="142"/>
-      <c r="B16" s="143"/>
-      <c r="C16" s="134"/>
+      <c r="A16" s="152"/>
+      <c r="B16" s="150"/>
+      <c r="C16" s="130"/>
       <c r="D16" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="134"/>
+      <c r="F16" s="130"/>
       <c r="G16" s="117">
         <v>1850</v>
       </c>
@@ -3120,20 +6958,20 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="142"/>
-      <c r="B17" s="143" t="s">
+      <c r="A17" s="152"/>
+      <c r="B17" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="134" t="s">
+      <c r="C17" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="134" t="s">
+      <c r="D17" s="130" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="134" t="s">
+      <c r="F17" s="130" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="117">
@@ -3152,14 +6990,14 @@
       <c r="K17" s="26"/>
     </row>
     <row r="18" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="142"/>
-      <c r="B18" s="143"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
+      <c r="A18" s="152"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
       <c r="E18" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="134"/>
+      <c r="F18" s="130"/>
       <c r="G18" s="117">
         <v>1025</v>
       </c>
@@ -3176,16 +7014,16 @@
       <c r="K18" s="28"/>
     </row>
     <row r="19" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="142"/>
-      <c r="B19" s="143"/>
-      <c r="C19" s="134"/>
+      <c r="A19" s="152"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="130"/>
       <c r="D19" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="134"/>
+      <c r="F19" s="130"/>
       <c r="G19" s="117">
         <v>1650</v>
       </c>
@@ -3202,18 +7040,18 @@
       <c r="K19" s="29"/>
     </row>
     <row r="20" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="142"/>
-      <c r="B20" s="143"/>
-      <c r="C20" s="134" t="s">
+      <c r="A20" s="152"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="134" t="s">
+      <c r="D20" s="130" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="134" t="s">
+      <c r="F20" s="130" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="113">
@@ -3234,14 +7072,14 @@
       </c>
     </row>
     <row r="21" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="142"/>
-      <c r="B21" s="143"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="134"/>
+      <c r="A21" s="152"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
       <c r="E21" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="134"/>
+      <c r="F21" s="130"/>
       <c r="G21" s="113">
         <v>1025</v>
       </c>
@@ -3260,16 +7098,16 @@
       </c>
     </row>
     <row r="22" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="142"/>
-      <c r="B22" s="143"/>
-      <c r="C22" s="134"/>
+      <c r="A22" s="152"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="130"/>
       <c r="D22" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="134"/>
+      <c r="F22" s="130"/>
       <c r="G22" s="117">
         <v>1850</v>
       </c>
@@ -3288,20 +7126,20 @@
       </c>
     </row>
     <row r="23" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="142"/>
-      <c r="B23" s="136" t="s">
+      <c r="A23" s="152"/>
+      <c r="B23" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="134" t="s">
+      <c r="C23" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="134" t="s">
+      <c r="D23" s="130" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="134" t="s">
+      <c r="F23" s="130" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="117">
@@ -3320,14 +7158,14 @@
       <c r="K23" s="26"/>
     </row>
     <row r="24" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="142"/>
-      <c r="B24" s="136"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="134"/>
+      <c r="A24" s="152"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="130"/>
       <c r="E24" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="134"/>
+      <c r="F24" s="130"/>
       <c r="G24" s="117">
         <v>1025</v>
       </c>
@@ -3344,16 +7182,16 @@
       <c r="K24" s="28"/>
     </row>
     <row r="25" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="142"/>
-      <c r="B25" s="136"/>
-      <c r="C25" s="134"/>
+      <c r="A25" s="152"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="130"/>
       <c r="D25" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="134"/>
+      <c r="F25" s="130"/>
       <c r="G25" s="117">
         <v>1650</v>
       </c>
@@ -3370,18 +7208,18 @@
       <c r="K25" s="29"/>
     </row>
     <row r="26" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="142"/>
-      <c r="B26" s="136"/>
-      <c r="C26" s="134" t="s">
+      <c r="A26" s="152"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="134" t="s">
+      <c r="D26" s="130" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="134" t="s">
+      <c r="F26" s="130" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="113">
@@ -3402,14 +7240,14 @@
       </c>
     </row>
     <row r="27" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="142"/>
-      <c r="B27" s="136"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
+      <c r="A27" s="152"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
       <c r="E27" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="134"/>
+      <c r="F27" s="130"/>
       <c r="G27" s="113">
         <v>1025</v>
       </c>
@@ -3428,16 +7266,16 @@
       </c>
     </row>
     <row r="28" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="142"/>
-      <c r="B28" s="136"/>
-      <c r="C28" s="134"/>
+      <c r="A28" s="152"/>
+      <c r="B28" s="134"/>
+      <c r="C28" s="130"/>
       <c r="D28" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="134"/>
+      <c r="F28" s="130"/>
       <c r="G28" s="117">
         <v>1850</v>
       </c>
@@ -3456,20 +7294,20 @@
       </c>
     </row>
     <row r="29" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="142"/>
-      <c r="B29" s="143" t="s">
+      <c r="A29" s="152"/>
+      <c r="B29" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="134" t="s">
+      <c r="C29" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="134" t="s">
+      <c r="D29" s="130" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="134" t="s">
+      <c r="F29" s="130" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="117">
@@ -3488,14 +7326,14 @@
       <c r="K29" s="26"/>
     </row>
     <row r="30" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="142"/>
-      <c r="B30" s="143"/>
-      <c r="C30" s="134"/>
-      <c r="D30" s="134"/>
+      <c r="A30" s="152"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="130"/>
       <c r="E30" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="134"/>
+      <c r="F30" s="130"/>
       <c r="G30" s="117">
         <v>1025</v>
       </c>
@@ -3512,16 +7350,16 @@
       <c r="K30" s="28"/>
     </row>
     <row r="31" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="142"/>
-      <c r="B31" s="143"/>
-      <c r="C31" s="134"/>
+      <c r="A31" s="152"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="130"/>
       <c r="D31" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="134"/>
+      <c r="F31" s="130"/>
       <c r="G31" s="117">
         <v>1650</v>
       </c>
@@ -3538,18 +7376,18 @@
       <c r="K31" s="29"/>
     </row>
     <row r="32" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="142"/>
-      <c r="B32" s="143"/>
-      <c r="C32" s="134" t="s">
+      <c r="A32" s="152"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="134" t="s">
+      <c r="D32" s="130" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="134" t="s">
+      <c r="F32" s="130" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="113">
@@ -3570,14 +7408,14 @@
       </c>
     </row>
     <row r="33" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="142"/>
-      <c r="B33" s="143"/>
-      <c r="C33" s="134"/>
-      <c r="D33" s="134"/>
+      <c r="A33" s="152"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="130"/>
       <c r="E33" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="134"/>
+      <c r="F33" s="130"/>
       <c r="G33" s="113">
         <v>1025</v>
       </c>
@@ -3596,16 +7434,16 @@
       </c>
     </row>
     <row r="34" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="142"/>
-      <c r="B34" s="143"/>
-      <c r="C34" s="134"/>
+      <c r="A34" s="152"/>
+      <c r="B34" s="150"/>
+      <c r="C34" s="130"/>
       <c r="D34" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="134"/>
+      <c r="F34" s="130"/>
       <c r="G34" s="117">
         <v>1850</v>
       </c>
@@ -3624,20 +7462,20 @@
       </c>
     </row>
     <row r="35" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="142"/>
-      <c r="B35" s="143" t="s">
+      <c r="A35" s="152"/>
+      <c r="B35" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="134" t="s">
+      <c r="C35" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="134" t="s">
+      <c r="D35" s="130" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="134" t="s">
+      <c r="F35" s="130" t="s">
         <v>13</v>
       </c>
       <c r="G35" s="117">
@@ -3656,14 +7494,14 @@
       <c r="K35" s="26"/>
     </row>
     <row r="36" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="142"/>
-      <c r="B36" s="143"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="134"/>
+      <c r="A36" s="152"/>
+      <c r="B36" s="150"/>
+      <c r="C36" s="130"/>
+      <c r="D36" s="130"/>
       <c r="E36" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="134"/>
+      <c r="F36" s="130"/>
       <c r="G36" s="117">
         <v>1025</v>
       </c>
@@ -3680,16 +7518,16 @@
       <c r="K36" s="28"/>
     </row>
     <row r="37" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="142"/>
-      <c r="B37" s="143"/>
-      <c r="C37" s="134"/>
+      <c r="A37" s="152"/>
+      <c r="B37" s="150"/>
+      <c r="C37" s="130"/>
       <c r="D37" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="134"/>
+      <c r="F37" s="130"/>
       <c r="G37" s="117">
         <v>1650</v>
       </c>
@@ -3706,11 +7544,11 @@
       <c r="K37" s="29"/>
     </row>
     <row r="38" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="142"/>
-      <c r="B38" s="144" t="s">
+      <c r="A38" s="152"/>
+      <c r="B38" s="151" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="134" t="s">
+      <c r="C38" s="130" t="s">
         <v>121</v>
       </c>
       <c r="D38" s="18" t="s">
@@ -3719,7 +7557,7 @@
       <c r="E38" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="F38" s="134" t="s">
+      <c r="F38" s="130" t="s">
         <v>123</v>
       </c>
       <c r="G38" s="113">
@@ -3740,16 +7578,16 @@
       </c>
     </row>
     <row r="39" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="142"/>
-      <c r="B39" s="143"/>
-      <c r="C39" s="134"/>
+      <c r="A39" s="152"/>
+      <c r="B39" s="150"/>
+      <c r="C39" s="130"/>
       <c r="D39" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E39" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="134"/>
+      <c r="F39" s="130"/>
       <c r="G39" s="113">
         <v>3950</v>
       </c>
@@ -3768,22 +7606,22 @@
       </c>
     </row>
     <row r="40" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="142" t="s">
+      <c r="A40" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="136" t="s">
+      <c r="B40" s="134" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="134" t="s">
+      <c r="C40" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="134" t="s">
+      <c r="D40" s="130" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="134" t="s">
+      <c r="F40" s="130" t="s">
         <v>13</v>
       </c>
       <c r="G40" s="117">
@@ -3802,14 +7640,14 @@
       <c r="K40" s="26"/>
     </row>
     <row r="41" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="142"/>
-      <c r="B41" s="136"/>
-      <c r="C41" s="134"/>
-      <c r="D41" s="134"/>
+      <c r="A41" s="152"/>
+      <c r="B41" s="134"/>
+      <c r="C41" s="130"/>
+      <c r="D41" s="130"/>
       <c r="E41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="134"/>
+      <c r="F41" s="130"/>
       <c r="G41" s="117">
         <v>1025</v>
       </c>
@@ -3826,16 +7664,16 @@
       <c r="K41" s="28"/>
     </row>
     <row r="42" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="142"/>
-      <c r="B42" s="136"/>
-      <c r="C42" s="134"/>
+      <c r="A42" s="152"/>
+      <c r="B42" s="134"/>
+      <c r="C42" s="130"/>
       <c r="D42" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="134"/>
+      <c r="F42" s="130"/>
       <c r="G42" s="117">
         <v>1650</v>
       </c>
@@ -3852,18 +7690,18 @@
       <c r="K42" s="29"/>
     </row>
     <row r="43" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="142"/>
-      <c r="B43" s="136"/>
-      <c r="C43" s="134" t="s">
+      <c r="A43" s="152"/>
+      <c r="B43" s="134"/>
+      <c r="C43" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="134" t="s">
+      <c r="D43" s="130" t="s">
         <v>11</v>
       </c>
       <c r="E43" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F43" s="134" t="s">
+      <c r="F43" s="130" t="s">
         <v>13</v>
       </c>
       <c r="G43" s="113">
@@ -3884,14 +7722,14 @@
       </c>
     </row>
     <row r="44" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="142"/>
-      <c r="B44" s="136"/>
-      <c r="C44" s="134"/>
-      <c r="D44" s="134"/>
+      <c r="A44" s="152"/>
+      <c r="B44" s="134"/>
+      <c r="C44" s="130"/>
+      <c r="D44" s="130"/>
       <c r="E44" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F44" s="134"/>
+      <c r="F44" s="130"/>
       <c r="G44" s="113">
         <v>1025</v>
       </c>
@@ -3910,16 +7748,16 @@
       </c>
     </row>
     <row r="45" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="142"/>
-      <c r="B45" s="136"/>
-      <c r="C45" s="134"/>
+      <c r="A45" s="152"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="130"/>
       <c r="D45" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E45" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="134"/>
+      <c r="F45" s="130"/>
       <c r="G45" s="117">
         <v>1850</v>
       </c>
@@ -3938,9 +7776,9 @@
       </c>
     </row>
     <row r="46" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="142"/>
-      <c r="B46" s="136"/>
-      <c r="C46" s="134" t="s">
+      <c r="A46" s="152"/>
+      <c r="B46" s="134"/>
+      <c r="C46" s="130" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="23" t="s">
@@ -3949,7 +7787,7 @@
       <c r="E46" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F46" s="134" t="s">
+      <c r="F46" s="130" t="s">
         <v>31</v>
       </c>
       <c r="G46" s="117">
@@ -3968,16 +7806,16 @@
       <c r="K46" s="31"/>
     </row>
     <row r="47" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="142"/>
-      <c r="B47" s="136"/>
-      <c r="C47" s="134"/>
+      <c r="A47" s="152"/>
+      <c r="B47" s="134"/>
+      <c r="C47" s="130"/>
       <c r="D47" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E47" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F47" s="134"/>
+      <c r="F47" s="130"/>
       <c r="G47" s="117">
         <v>2910</v>
       </c>
@@ -3994,9 +7832,9 @@
       <c r="K47" s="31"/>
     </row>
     <row r="48" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="142"/>
-      <c r="B48" s="136"/>
-      <c r="C48" s="134" t="s">
+      <c r="A48" s="152"/>
+      <c r="B48" s="134"/>
+      <c r="C48" s="130" t="s">
         <v>124</v>
       </c>
       <c r="D48" s="18" t="s">
@@ -4005,7 +7843,7 @@
       <c r="E48" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="F48" s="134" t="s">
+      <c r="F48" s="130" t="s">
         <v>125</v>
       </c>
       <c r="G48" s="114">
@@ -4026,16 +7864,16 @@
       </c>
     </row>
     <row r="49" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="142"/>
-      <c r="B49" s="136"/>
-      <c r="C49" s="134"/>
+      <c r="A49" s="152"/>
+      <c r="B49" s="134"/>
+      <c r="C49" s="130"/>
       <c r="D49" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E49" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="F49" s="134"/>
+      <c r="F49" s="130"/>
       <c r="G49" s="114">
         <v>2650</v>
       </c>
@@ -4054,18 +7892,18 @@
       </c>
     </row>
     <row r="50" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="142"/>
-      <c r="B50" s="136"/>
-      <c r="C50" s="155" t="s">
+      <c r="A50" s="152"/>
+      <c r="B50" s="134"/>
+      <c r="C50" s="153" t="s">
         <v>33</v>
       </c>
-      <c r="D50" s="156" t="s">
+      <c r="D50" s="129" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="F50" s="156" t="s">
+      <c r="F50" s="129" t="s">
         <v>34</v>
       </c>
       <c r="G50" s="115">
@@ -4083,14 +7921,14 @@
       </c>
     </row>
     <row r="51" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="142"/>
-      <c r="B51" s="136"/>
-      <c r="C51" s="156"/>
-      <c r="D51" s="156"/>
+      <c r="A51" s="152"/>
+      <c r="B51" s="134"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="129"/>
       <c r="E51" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="F51" s="156"/>
+      <c r="F51" s="129"/>
       <c r="G51" s="115">
         <v>1150</v>
       </c>
@@ -4104,16 +7942,16 @@
       <c r="K51" s="34"/>
     </row>
     <row r="52" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="142"/>
-      <c r="B52" s="136"/>
-      <c r="C52" s="156"/>
+      <c r="A52" s="152"/>
+      <c r="B52" s="134"/>
+      <c r="C52" s="129"/>
       <c r="D52" s="35" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="F52" s="156"/>
+      <c r="F52" s="129"/>
       <c r="G52" s="114">
         <v>2200</v>
       </c>
@@ -4127,20 +7965,20 @@
       <c r="K52" s="34"/>
     </row>
     <row r="53" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="142"/>
-      <c r="B53" s="143" t="s">
+      <c r="A53" s="152"/>
+      <c r="B53" s="150" t="s">
         <v>102</v>
       </c>
-      <c r="C53" s="134" t="s">
+      <c r="C53" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="134" t="s">
+      <c r="D53" s="130" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="134" t="s">
+      <c r="F53" s="130" t="s">
         <v>13</v>
       </c>
       <c r="G53" s="113">
@@ -4159,14 +7997,14 @@
       <c r="K53" s="26"/>
     </row>
     <row r="54" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="142"/>
-      <c r="B54" s="143"/>
-      <c r="C54" s="134"/>
-      <c r="D54" s="134"/>
+      <c r="A54" s="152"/>
+      <c r="B54" s="150"/>
+      <c r="C54" s="130"/>
+      <c r="D54" s="130"/>
       <c r="E54" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="134"/>
+      <c r="F54" s="130"/>
       <c r="G54" s="113">
         <v>975</v>
       </c>
@@ -4183,16 +8021,16 @@
       <c r="K54" s="28"/>
     </row>
     <row r="55" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="142"/>
-      <c r="B55" s="143"/>
-      <c r="C55" s="134"/>
+      <c r="A55" s="152"/>
+      <c r="B55" s="150"/>
+      <c r="C55" s="130"/>
       <c r="D55" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E55" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="134"/>
+      <c r="F55" s="130"/>
       <c r="G55" s="113">
         <v>1625</v>
       </c>
@@ -4209,18 +8047,18 @@
       <c r="K55" s="29"/>
     </row>
     <row r="56" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="142"/>
-      <c r="B56" s="143"/>
-      <c r="C56" s="134" t="s">
+      <c r="A56" s="152"/>
+      <c r="B56" s="150"/>
+      <c r="C56" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="134" t="s">
+      <c r="D56" s="130" t="s">
         <v>11</v>
       </c>
       <c r="E56" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="134" t="s">
+      <c r="F56" s="130" t="s">
         <v>13</v>
       </c>
       <c r="G56" s="113">
@@ -4241,14 +8079,14 @@
       </c>
     </row>
     <row r="57" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="142"/>
-      <c r="B57" s="143"/>
-      <c r="C57" s="134"/>
-      <c r="D57" s="134"/>
+      <c r="A57" s="152"/>
+      <c r="B57" s="150"/>
+      <c r="C57" s="130"/>
+      <c r="D57" s="130"/>
       <c r="E57" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F57" s="134"/>
+      <c r="F57" s="130"/>
       <c r="G57" s="113">
         <v>1025</v>
       </c>
@@ -4267,16 +8105,16 @@
       </c>
     </row>
     <row r="58" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="142"/>
-      <c r="B58" s="143"/>
-      <c r="C58" s="134"/>
+      <c r="A58" s="152"/>
+      <c r="B58" s="150"/>
+      <c r="C58" s="130"/>
       <c r="D58" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E58" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F58" s="134"/>
+      <c r="F58" s="130"/>
       <c r="G58" s="117">
         <v>1850</v>
       </c>
@@ -4295,9 +8133,9 @@
       </c>
     </row>
     <row r="59" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="142"/>
-      <c r="B59" s="143"/>
-      <c r="C59" s="134" t="s">
+      <c r="A59" s="152"/>
+      <c r="B59" s="150"/>
+      <c r="C59" s="130" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="23" t="s">
@@ -4306,7 +8144,7 @@
       <c r="E59" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="134" t="s">
+      <c r="F59" s="130" t="s">
         <v>31</v>
       </c>
       <c r="G59" s="117">
@@ -4325,16 +8163,16 @@
       <c r="K59" s="31"/>
     </row>
     <row r="60" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="142"/>
-      <c r="B60" s="143"/>
-      <c r="C60" s="134"/>
+      <c r="A60" s="152"/>
+      <c r="B60" s="150"/>
+      <c r="C60" s="130"/>
       <c r="D60" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E60" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F60" s="134"/>
+      <c r="F60" s="130"/>
       <c r="G60" s="117">
         <v>2910</v>
       </c>
@@ -4351,20 +8189,20 @@
       <c r="K60" s="31"/>
     </row>
     <row r="61" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="142"/>
-      <c r="B61" s="143" t="s">
+      <c r="A61" s="152"/>
+      <c r="B61" s="150" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="134" t="s">
+      <c r="C61" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="134" t="s">
+      <c r="D61" s="130" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F61" s="134" t="s">
+      <c r="F61" s="130" t="s">
         <v>13</v>
       </c>
       <c r="G61" s="117">
@@ -4383,14 +8221,14 @@
       <c r="K61" s="26"/>
     </row>
     <row r="62" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="142"/>
-      <c r="B62" s="143"/>
-      <c r="C62" s="134"/>
-      <c r="D62" s="134"/>
+      <c r="A62" s="152"/>
+      <c r="B62" s="150"/>
+      <c r="C62" s="130"/>
+      <c r="D62" s="130"/>
       <c r="E62" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F62" s="134"/>
+      <c r="F62" s="130"/>
       <c r="G62" s="117">
         <v>1025</v>
       </c>
@@ -4407,16 +8245,16 @@
       <c r="K62" s="28"/>
     </row>
     <row r="63" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="142"/>
-      <c r="B63" s="143"/>
-      <c r="C63" s="134"/>
+      <c r="A63" s="152"/>
+      <c r="B63" s="150"/>
+      <c r="C63" s="130"/>
       <c r="D63" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E63" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="134"/>
+      <c r="F63" s="130"/>
       <c r="G63" s="117">
         <v>1650</v>
       </c>
@@ -4433,20 +8271,20 @@
       <c r="K63" s="29"/>
     </row>
     <row r="64" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="142"/>
-      <c r="B64" s="143" t="s">
+      <c r="A64" s="152"/>
+      <c r="B64" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="C64" s="134" t="s">
+      <c r="C64" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="134" t="s">
+      <c r="D64" s="130" t="s">
         <v>11</v>
       </c>
       <c r="E64" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="134" t="s">
+      <c r="F64" s="130" t="s">
         <v>13</v>
       </c>
       <c r="G64" s="117">
@@ -4465,14 +8303,14 @@
       <c r="K64" s="26"/>
     </row>
     <row r="65" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="142"/>
-      <c r="B65" s="143"/>
-      <c r="C65" s="134"/>
-      <c r="D65" s="134"/>
+      <c r="A65" s="152"/>
+      <c r="B65" s="150"/>
+      <c r="C65" s="130"/>
+      <c r="D65" s="130"/>
       <c r="E65" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F65" s="134"/>
+      <c r="F65" s="130"/>
       <c r="G65" s="117">
         <v>1025</v>
       </c>
@@ -4489,16 +8327,16 @@
       <c r="K65" s="28"/>
     </row>
     <row r="66" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="142"/>
-      <c r="B66" s="143"/>
-      <c r="C66" s="134"/>
+      <c r="A66" s="152"/>
+      <c r="B66" s="150"/>
+      <c r="C66" s="130"/>
       <c r="D66" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E66" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F66" s="134"/>
+      <c r="F66" s="130"/>
       <c r="G66" s="117">
         <v>1650</v>
       </c>
@@ -4515,18 +8353,18 @@
       <c r="K66" s="29"/>
     </row>
     <row r="67" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="142"/>
-      <c r="B67" s="143"/>
-      <c r="C67" s="134" t="s">
+      <c r="A67" s="152"/>
+      <c r="B67" s="150"/>
+      <c r="C67" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="134" t="s">
+      <c r="D67" s="130" t="s">
         <v>11</v>
       </c>
       <c r="E67" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F67" s="134" t="s">
+      <c r="F67" s="130" t="s">
         <v>13</v>
       </c>
       <c r="G67" s="113">
@@ -4547,14 +8385,14 @@
       </c>
     </row>
     <row r="68" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="142"/>
-      <c r="B68" s="143"/>
-      <c r="C68" s="134"/>
-      <c r="D68" s="134"/>
+      <c r="A68" s="152"/>
+      <c r="B68" s="150"/>
+      <c r="C68" s="130"/>
+      <c r="D68" s="130"/>
       <c r="E68" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="F68" s="134"/>
+      <c r="F68" s="130"/>
       <c r="G68" s="113">
         <v>1025</v>
       </c>
@@ -4573,16 +8411,16 @@
       </c>
     </row>
     <row r="69" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="142"/>
-      <c r="B69" s="143"/>
-      <c r="C69" s="134"/>
+      <c r="A69" s="152"/>
+      <c r="B69" s="150"/>
+      <c r="C69" s="130"/>
       <c r="D69" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E69" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F69" s="134"/>
+      <c r="F69" s="130"/>
       <c r="G69" s="117">
         <v>1850</v>
       </c>
@@ -4601,20 +8439,20 @@
       </c>
     </row>
     <row r="70" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="142"/>
-      <c r="B70" s="143" t="s">
+      <c r="A70" s="152"/>
+      <c r="B70" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="C70" s="134" t="s">
+      <c r="C70" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="D70" s="134" t="s">
+      <c r="D70" s="130" t="s">
         <v>11</v>
       </c>
       <c r="E70" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F70" s="134" t="s">
+      <c r="F70" s="130" t="s">
         <v>13</v>
       </c>
       <c r="G70" s="117">
@@ -4633,14 +8471,14 @@
       <c r="K70" s="26"/>
     </row>
     <row r="71" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="142"/>
-      <c r="B71" s="143"/>
-      <c r="C71" s="134"/>
-      <c r="D71" s="134"/>
+      <c r="A71" s="152"/>
+      <c r="B71" s="150"/>
+      <c r="C71" s="130"/>
+      <c r="D71" s="130"/>
       <c r="E71" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F71" s="134"/>
+      <c r="F71" s="130"/>
       <c r="G71" s="117">
         <v>1025</v>
       </c>
@@ -4657,16 +8495,16 @@
       <c r="K71" s="28"/>
     </row>
     <row r="72" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="142"/>
-      <c r="B72" s="143"/>
-      <c r="C72" s="134"/>
+      <c r="A72" s="152"/>
+      <c r="B72" s="150"/>
+      <c r="C72" s="130"/>
       <c r="D72" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E72" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="134"/>
+      <c r="F72" s="130"/>
       <c r="G72" s="117">
         <v>1650</v>
       </c>
@@ -4683,18 +8521,18 @@
       <c r="K72" s="29"/>
     </row>
     <row r="73" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="142"/>
-      <c r="B73" s="143"/>
-      <c r="C73" s="134" t="s">
+      <c r="A73" s="152"/>
+      <c r="B73" s="150"/>
+      <c r="C73" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="134" t="s">
+      <c r="D73" s="130" t="s">
         <v>11</v>
       </c>
       <c r="E73" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F73" s="134" t="s">
+      <c r="F73" s="130" t="s">
         <v>13</v>
       </c>
       <c r="G73" s="113">
@@ -4715,14 +8553,14 @@
       </c>
     </row>
     <row r="74" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="142"/>
-      <c r="B74" s="143"/>
-      <c r="C74" s="134"/>
-      <c r="D74" s="134"/>
+      <c r="A74" s="152"/>
+      <c r="B74" s="150"/>
+      <c r="C74" s="130"/>
+      <c r="D74" s="130"/>
       <c r="E74" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="F74" s="134"/>
+      <c r="F74" s="130"/>
       <c r="G74" s="113">
         <v>1025</v>
       </c>
@@ -4741,16 +8579,16 @@
       </c>
     </row>
     <row r="75" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="142"/>
-      <c r="B75" s="143"/>
-      <c r="C75" s="134"/>
+      <c r="A75" s="152"/>
+      <c r="B75" s="150"/>
+      <c r="C75" s="130"/>
       <c r="D75" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E75" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F75" s="134"/>
+      <c r="F75" s="130"/>
       <c r="G75" s="117">
         <v>1850</v>
       </c>
@@ -4769,9 +8607,9 @@
       </c>
     </row>
     <row r="76" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="142"/>
-      <c r="B76" s="143"/>
-      <c r="C76" s="134" t="s">
+      <c r="A76" s="152"/>
+      <c r="B76" s="150"/>
+      <c r="C76" s="130" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="23" t="s">
@@ -4780,7 +8618,7 @@
       <c r="E76" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F76" s="134" t="s">
+      <c r="F76" s="130" t="s">
         <v>31</v>
       </c>
       <c r="G76" s="117">
@@ -4799,16 +8637,16 @@
       <c r="K76" s="31"/>
     </row>
     <row r="77" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="142"/>
-      <c r="B77" s="143"/>
-      <c r="C77" s="134"/>
+      <c r="A77" s="152"/>
+      <c r="B77" s="150"/>
+      <c r="C77" s="130"/>
       <c r="D77" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E77" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F77" s="134"/>
+      <c r="F77" s="130"/>
       <c r="G77" s="117">
         <v>2910</v>
       </c>
@@ -4825,20 +8663,20 @@
       <c r="K77" s="31"/>
     </row>
     <row r="78" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="142"/>
-      <c r="B78" s="143" t="s">
+      <c r="A78" s="152"/>
+      <c r="B78" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="C78" s="134" t="s">
+      <c r="C78" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="D78" s="134" t="s">
+      <c r="D78" s="130" t="s">
         <v>11</v>
       </c>
       <c r="E78" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="134" t="s">
+      <c r="F78" s="130" t="s">
         <v>13</v>
       </c>
       <c r="G78" s="117">
@@ -4857,14 +8695,14 @@
       <c r="K78" s="26"/>
     </row>
     <row r="79" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="142"/>
-      <c r="B79" s="143"/>
-      <c r="C79" s="134"/>
-      <c r="D79" s="134"/>
+      <c r="A79" s="152"/>
+      <c r="B79" s="150"/>
+      <c r="C79" s="130"/>
+      <c r="D79" s="130"/>
       <c r="E79" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F79" s="134"/>
+      <c r="F79" s="130"/>
       <c r="G79" s="117">
         <v>1025</v>
       </c>
@@ -4881,16 +8719,16 @@
       <c r="K79" s="28"/>
     </row>
     <row r="80" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="142"/>
-      <c r="B80" s="143"/>
-      <c r="C80" s="134"/>
+      <c r="A80" s="152"/>
+      <c r="B80" s="150"/>
+      <c r="C80" s="130"/>
       <c r="D80" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E80" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F80" s="134"/>
+      <c r="F80" s="130"/>
       <c r="G80" s="117">
         <v>1650</v>
       </c>
@@ -4907,18 +8745,18 @@
       <c r="K80" s="29"/>
     </row>
     <row r="81" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="142"/>
-      <c r="B81" s="143"/>
-      <c r="C81" s="134" t="s">
+      <c r="A81" s="152"/>
+      <c r="B81" s="150"/>
+      <c r="C81" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="134" t="s">
+      <c r="D81" s="130" t="s">
         <v>11</v>
       </c>
       <c r="E81" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F81" s="134" t="s">
+      <c r="F81" s="130" t="s">
         <v>13</v>
       </c>
       <c r="G81" s="113">
@@ -4939,14 +8777,14 @@
       </c>
     </row>
     <row r="82" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="142"/>
-      <c r="B82" s="143"/>
-      <c r="C82" s="134"/>
-      <c r="D82" s="134"/>
+      <c r="A82" s="152"/>
+      <c r="B82" s="150"/>
+      <c r="C82" s="130"/>
+      <c r="D82" s="130"/>
       <c r="E82" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="F82" s="134"/>
+      <c r="F82" s="130"/>
       <c r="G82" s="113">
         <v>1025</v>
       </c>
@@ -4965,16 +8803,16 @@
       </c>
     </row>
     <row r="83" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="142"/>
-      <c r="B83" s="143"/>
-      <c r="C83" s="134"/>
+      <c r="A83" s="152"/>
+      <c r="B83" s="150"/>
+      <c r="C83" s="130"/>
       <c r="D83" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E83" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F83" s="134"/>
+      <c r="F83" s="130"/>
       <c r="G83" s="117">
         <v>1850</v>
       </c>
@@ -4993,22 +8831,22 @@
       </c>
     </row>
     <row r="84" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="142" t="s">
+      <c r="A84" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="B84" s="143" t="s">
+      <c r="B84" s="150" t="s">
         <v>103</v>
       </c>
-      <c r="C84" s="134" t="s">
+      <c r="C84" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="134" t="s">
+      <c r="D84" s="130" t="s">
         <v>11</v>
       </c>
       <c r="E84" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F84" s="134" t="s">
+      <c r="F84" s="130" t="s">
         <v>13</v>
       </c>
       <c r="G84" s="117">
@@ -5027,14 +8865,14 @@
       <c r="K84" s="36"/>
     </row>
     <row r="85" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="142"/>
-      <c r="B85" s="143"/>
-      <c r="C85" s="134"/>
-      <c r="D85" s="134"/>
+      <c r="A85" s="152"/>
+      <c r="B85" s="150"/>
+      <c r="C85" s="130"/>
+      <c r="D85" s="130"/>
       <c r="E85" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F85" s="134"/>
+      <c r="F85" s="130"/>
       <c r="G85" s="117">
         <v>1025</v>
       </c>
@@ -5051,16 +8889,16 @@
       <c r="K85" s="28"/>
     </row>
     <row r="86" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="142"/>
-      <c r="B86" s="143"/>
-      <c r="C86" s="134"/>
+      <c r="A86" s="152"/>
+      <c r="B86" s="150"/>
+      <c r="C86" s="130"/>
       <c r="D86" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E86" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F86" s="134"/>
+      <c r="F86" s="130"/>
       <c r="G86" s="117">
         <v>1650</v>
       </c>
@@ -5077,18 +8915,18 @@
       <c r="K86" s="29"/>
     </row>
     <row r="87" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="142"/>
-      <c r="B87" s="143"/>
-      <c r="C87" s="134" t="s">
+      <c r="A87" s="152"/>
+      <c r="B87" s="150"/>
+      <c r="C87" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="D87" s="134" t="s">
+      <c r="D87" s="130" t="s">
         <v>11</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F87" s="134" t="s">
+      <c r="F87" s="130" t="s">
         <v>13</v>
       </c>
       <c r="G87" s="113">
@@ -5109,14 +8947,14 @@
       </c>
     </row>
     <row r="88" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="142"/>
-      <c r="B88" s="143"/>
-      <c r="C88" s="134"/>
-      <c r="D88" s="134"/>
+      <c r="A88" s="152"/>
+      <c r="B88" s="150"/>
+      <c r="C88" s="130"/>
+      <c r="D88" s="130"/>
       <c r="E88" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="F88" s="134"/>
+      <c r="F88" s="130"/>
       <c r="G88" s="113">
         <v>1025</v>
       </c>
@@ -5135,16 +8973,16 @@
       </c>
     </row>
     <row r="89" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="142"/>
-      <c r="B89" s="143"/>
-      <c r="C89" s="134"/>
+      <c r="A89" s="152"/>
+      <c r="B89" s="150"/>
+      <c r="C89" s="130"/>
       <c r="D89" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E89" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F89" s="134"/>
+      <c r="F89" s="130"/>
       <c r="G89" s="117">
         <v>1850</v>
       </c>
@@ -5163,9 +9001,9 @@
       </c>
     </row>
     <row r="90" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="142"/>
-      <c r="B90" s="143"/>
-      <c r="C90" s="134" t="s">
+      <c r="A90" s="152"/>
+      <c r="B90" s="150"/>
+      <c r="C90" s="130" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="18" t="s">
@@ -5174,7 +9012,7 @@
       <c r="E90" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F90" s="134" t="s">
+      <c r="F90" s="130" t="s">
         <v>31</v>
       </c>
       <c r="G90" s="117">
@@ -5193,16 +9031,16 @@
       <c r="K90" s="31"/>
     </row>
     <row r="91" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="142"/>
-      <c r="B91" s="143"/>
-      <c r="C91" s="134"/>
+      <c r="A91" s="152"/>
+      <c r="B91" s="150"/>
+      <c r="C91" s="130"/>
       <c r="D91" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E91" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F91" s="134"/>
+      <c r="F91" s="130"/>
       <c r="G91" s="117">
         <v>2910</v>
       </c>
@@ -5219,9 +9057,9 @@
       <c r="K91" s="31"/>
     </row>
     <row r="92" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="142"/>
-      <c r="B92" s="143"/>
-      <c r="C92" s="134" t="s">
+      <c r="A92" s="152"/>
+      <c r="B92" s="150"/>
+      <c r="C92" s="130" t="s">
         <v>33</v>
       </c>
       <c r="D92" s="18" t="s">
@@ -5230,7 +9068,7 @@
       <c r="E92" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F92" s="147" t="s">
+      <c r="F92" s="141" t="s">
         <v>31</v>
       </c>
       <c r="G92" s="113">
@@ -5248,16 +9086,16 @@
       </c>
     </row>
     <row r="93" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="142"/>
-      <c r="B93" s="143"/>
-      <c r="C93" s="134"/>
-      <c r="D93" s="134" t="s">
+      <c r="A93" s="152"/>
+      <c r="B93" s="150"/>
+      <c r="C93" s="130"/>
+      <c r="D93" s="130" t="s">
         <v>15</v>
       </c>
       <c r="E93" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F93" s="147"/>
+      <c r="F93" s="141"/>
       <c r="G93" s="113">
         <v>1850</v>
       </c>
@@ -5271,14 +9109,14 @@
       <c r="K93" s="31"/>
     </row>
     <row r="94" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="142"/>
-      <c r="B94" s="143"/>
-      <c r="C94" s="134"/>
-      <c r="D94" s="134"/>
+      <c r="A94" s="152"/>
+      <c r="B94" s="150"/>
+      <c r="C94" s="130"/>
+      <c r="D94" s="130"/>
       <c r="E94" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F94" s="147"/>
+      <c r="F94" s="141"/>
       <c r="G94" s="113">
         <v>1850</v>
       </c>
@@ -5292,20 +9130,20 @@
       <c r="K94" s="31"/>
     </row>
     <row r="95" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="142"/>
-      <c r="B95" s="143" t="s">
+      <c r="A95" s="152"/>
+      <c r="B95" s="150" t="s">
         <v>45</v>
       </c>
-      <c r="C95" s="134" t="s">
+      <c r="C95" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="D95" s="134" t="s">
+      <c r="D95" s="130" t="s">
         <v>11</v>
       </c>
       <c r="E95" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F95" s="134" t="s">
+      <c r="F95" s="130" t="s">
         <v>13</v>
       </c>
       <c r="G95" s="117">
@@ -5324,14 +9162,14 @@
       <c r="K95" s="37"/>
     </row>
     <row r="96" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="142"/>
-      <c r="B96" s="143"/>
-      <c r="C96" s="134"/>
-      <c r="D96" s="134"/>
+      <c r="A96" s="152"/>
+      <c r="B96" s="150"/>
+      <c r="C96" s="130"/>
+      <c r="D96" s="130"/>
       <c r="E96" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F96" s="134"/>
+      <c r="F96" s="130"/>
       <c r="G96" s="117">
         <v>1025</v>
       </c>
@@ -5348,16 +9186,16 @@
       <c r="K96" s="28"/>
     </row>
     <row r="97" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="142"/>
-      <c r="B97" s="143"/>
-      <c r="C97" s="134"/>
+      <c r="A97" s="152"/>
+      <c r="B97" s="150"/>
+      <c r="C97" s="130"/>
       <c r="D97" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E97" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F97" s="134"/>
+      <c r="F97" s="130"/>
       <c r="G97" s="117">
         <v>1650</v>
       </c>
@@ -5374,18 +9212,18 @@
       <c r="K97" s="38"/>
     </row>
     <row r="98" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="142"/>
-      <c r="B98" s="143"/>
-      <c r="C98" s="134" t="s">
+      <c r="A98" s="152"/>
+      <c r="B98" s="150"/>
+      <c r="C98" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="D98" s="134" t="s">
+      <c r="D98" s="130" t="s">
         <v>11</v>
       </c>
       <c r="E98" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F98" s="134" t="s">
+      <c r="F98" s="130" t="s">
         <v>13</v>
       </c>
       <c r="G98" s="113">
@@ -5406,14 +9244,14 @@
       </c>
     </row>
     <row r="99" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="142"/>
-      <c r="B99" s="143"/>
-      <c r="C99" s="134"/>
-      <c r="D99" s="134"/>
+      <c r="A99" s="152"/>
+      <c r="B99" s="150"/>
+      <c r="C99" s="130"/>
+      <c r="D99" s="130"/>
       <c r="E99" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="F99" s="134"/>
+      <c r="F99" s="130"/>
       <c r="G99" s="113">
         <v>1025</v>
       </c>
@@ -5432,16 +9270,16 @@
       </c>
     </row>
     <row r="100" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="142"/>
-      <c r="B100" s="143"/>
-      <c r="C100" s="134"/>
+      <c r="A100" s="152"/>
+      <c r="B100" s="150"/>
+      <c r="C100" s="130"/>
       <c r="D100" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E100" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F100" s="134"/>
+      <c r="F100" s="130"/>
       <c r="G100" s="117">
         <v>1850</v>
       </c>
@@ -5460,9 +9298,9 @@
       </c>
     </row>
     <row r="101" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="142"/>
-      <c r="B101" s="143"/>
-      <c r="C101" s="134" t="s">
+      <c r="A101" s="152"/>
+      <c r="B101" s="150"/>
+      <c r="C101" s="130" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="18" t="s">
@@ -5471,7 +9309,7 @@
       <c r="E101" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F101" s="134" t="s">
+      <c r="F101" s="130" t="s">
         <v>125</v>
       </c>
       <c r="G101" s="117">
@@ -5490,16 +9328,16 @@
       <c r="K101" s="31"/>
     </row>
     <row r="102" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="142"/>
-      <c r="B102" s="143"/>
-      <c r="C102" s="134"/>
+      <c r="A102" s="152"/>
+      <c r="B102" s="150"/>
+      <c r="C102" s="130"/>
       <c r="D102" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F102" s="134"/>
+      <c r="F102" s="130"/>
       <c r="G102" s="117">
         <v>2910</v>
       </c>
@@ -5516,13 +9354,13 @@
       <c r="K102" s="31"/>
     </row>
     <row r="103" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="142" t="s">
+      <c r="A103" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="B103" s="143" t="s">
+      <c r="B103" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="C103" s="134" t="s">
+      <c r="C103" s="130" t="s">
         <v>10</v>
       </c>
       <c r="D103" s="145" t="s">
@@ -5552,9 +9390,9 @@
       </c>
     </row>
     <row r="104" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="142"/>
-      <c r="B104" s="143"/>
-      <c r="C104" s="134"/>
+      <c r="A104" s="152"/>
+      <c r="B104" s="150"/>
+      <c r="C104" s="130"/>
       <c r="D104" s="146"/>
       <c r="E104" s="25" t="s">
         <v>153</v>
@@ -5578,10 +9416,10 @@
       </c>
     </row>
     <row r="105" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="142"/>
-      <c r="B105" s="143"/>
-      <c r="C105" s="134"/>
-      <c r="D105" s="158" t="s">
+      <c r="A105" s="152"/>
+      <c r="B105" s="150"/>
+      <c r="C105" s="130"/>
+      <c r="D105" s="138" t="s">
         <v>15</v>
       </c>
       <c r="E105" s="25" t="s">
@@ -5606,10 +9444,10 @@
       </c>
     </row>
     <row r="106" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="142"/>
-      <c r="B106" s="143"/>
-      <c r="C106" s="134"/>
-      <c r="D106" s="159"/>
+      <c r="A106" s="152"/>
+      <c r="B106" s="150"/>
+      <c r="C106" s="130"/>
+      <c r="D106" s="147"/>
       <c r="E106" s="25" t="s">
         <v>154</v>
       </c>
@@ -5632,9 +9470,9 @@
       </c>
     </row>
     <row r="107" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="142"/>
-      <c r="B107" s="143"/>
-      <c r="C107" s="134" t="s">
+      <c r="A107" s="152"/>
+      <c r="B107" s="150"/>
+      <c r="C107" s="130" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="102" t="s">
@@ -5643,7 +9481,7 @@
       <c r="E107" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="F107" s="134" t="s">
+      <c r="F107" s="130" t="s">
         <v>20</v>
       </c>
       <c r="G107" s="113">
@@ -5664,16 +9502,16 @@
       </c>
     </row>
     <row r="108" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="142"/>
-      <c r="B108" s="143"/>
-      <c r="C108" s="134"/>
-      <c r="D108" s="165" t="s">
+      <c r="A108" s="152"/>
+      <c r="B108" s="150"/>
+      <c r="C108" s="130"/>
+      <c r="D108" s="137" t="s">
         <v>15</v>
       </c>
       <c r="E108" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="F108" s="147"/>
+      <c r="F108" s="141"/>
       <c r="G108" s="113">
         <v>1034</v>
       </c>
@@ -5692,14 +9530,14 @@
       </c>
     </row>
     <row r="109" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="142"/>
-      <c r="B109" s="143"/>
-      <c r="C109" s="134"/>
-      <c r="D109" s="158"/>
+      <c r="A109" s="152"/>
+      <c r="B109" s="150"/>
+      <c r="C109" s="130"/>
+      <c r="D109" s="138"/>
       <c r="E109" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="F109" s="147"/>
+      <c r="F109" s="141"/>
       <c r="G109" s="117">
         <v>1859</v>
       </c>
@@ -5718,22 +9556,22 @@
       </c>
     </row>
     <row r="110" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="139" t="s">
+      <c r="A110" s="131" t="s">
         <v>104</v>
       </c>
-      <c r="B110" s="136" t="s">
+      <c r="B110" s="134" t="s">
         <v>105</v>
       </c>
-      <c r="C110" s="134" t="s">
+      <c r="C110" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="D110" s="134" t="s">
+      <c r="D110" s="130" t="s">
         <v>11</v>
       </c>
       <c r="E110" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F110" s="147" t="s">
+      <c r="F110" s="141" t="s">
         <v>20</v>
       </c>
       <c r="G110" s="113">
@@ -5754,14 +9592,14 @@
       </c>
     </row>
     <row r="111" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="140"/>
-      <c r="B111" s="137"/>
-      <c r="C111" s="134"/>
-      <c r="D111" s="134"/>
+      <c r="A111" s="132"/>
+      <c r="B111" s="135"/>
+      <c r="C111" s="130"/>
+      <c r="D111" s="130"/>
       <c r="E111" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F111" s="147"/>
+      <c r="F111" s="141"/>
       <c r="G111" s="113">
         <v>1034</v>
       </c>
@@ -5780,14 +9618,14 @@
       </c>
     </row>
     <row r="112" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="140"/>
-      <c r="B112" s="137"/>
-      <c r="C112" s="134"/>
-      <c r="D112" s="134"/>
+      <c r="A112" s="132"/>
+      <c r="B112" s="135"/>
+      <c r="C112" s="130"/>
+      <c r="D112" s="130"/>
       <c r="E112" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F112" s="147"/>
+      <c r="F112" s="141"/>
       <c r="G112" s="113">
         <v>1034</v>
       </c>
@@ -5806,16 +9644,16 @@
       </c>
     </row>
     <row r="113" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="161"/>
-      <c r="B113" s="138"/>
-      <c r="C113" s="134"/>
+      <c r="A113" s="133"/>
+      <c r="B113" s="136"/>
+      <c r="C113" s="130"/>
       <c r="D113" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E113" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F113" s="147"/>
+      <c r="F113" s="141"/>
       <c r="G113" s="117">
         <v>1859</v>
       </c>
@@ -5834,22 +9672,22 @@
       </c>
     </row>
     <row r="114" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="139" t="s">
+      <c r="A114" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="B114" s="136" t="s">
+      <c r="B114" s="134" t="s">
         <v>108</v>
       </c>
-      <c r="C114" s="134" t="s">
+      <c r="C114" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="D114" s="134" t="s">
+      <c r="D114" s="130" t="s">
         <v>11</v>
       </c>
       <c r="E114" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F114" s="134" t="s">
+      <c r="F114" s="130" t="s">
         <v>20</v>
       </c>
       <c r="G114" s="117">
@@ -5868,14 +9706,14 @@
       <c r="K114" s="26"/>
     </row>
     <row r="115" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="140"/>
-      <c r="B115" s="137"/>
-      <c r="C115" s="134"/>
-      <c r="D115" s="134"/>
+      <c r="A115" s="132"/>
+      <c r="B115" s="135"/>
+      <c r="C115" s="130"/>
+      <c r="D115" s="130"/>
       <c r="E115" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F115" s="134"/>
+      <c r="F115" s="130"/>
       <c r="G115" s="117">
         <v>975</v>
       </c>
@@ -5892,14 +9730,14 @@
       <c r="K115" s="28"/>
     </row>
     <row r="116" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="140"/>
-      <c r="B116" s="137"/>
-      <c r="C116" s="134"/>
-      <c r="D116" s="134"/>
+      <c r="A116" s="132"/>
+      <c r="B116" s="135"/>
+      <c r="C116" s="130"/>
+      <c r="D116" s="130"/>
       <c r="E116" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F116" s="134"/>
+      <c r="F116" s="130"/>
       <c r="G116" s="117">
         <v>975</v>
       </c>
@@ -5916,14 +9754,14 @@
       <c r="K116" s="39"/>
     </row>
     <row r="117" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="140"/>
-      <c r="B117" s="137"/>
-      <c r="C117" s="134"/>
-      <c r="D117" s="134"/>
+      <c r="A117" s="132"/>
+      <c r="B117" s="135"/>
+      <c r="C117" s="130"/>
+      <c r="D117" s="130"/>
       <c r="E117" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="F117" s="134"/>
+      <c r="F117" s="130"/>
       <c r="G117" s="117">
         <v>975</v>
       </c>
@@ -5940,16 +9778,16 @@
       <c r="K117" s="39"/>
     </row>
     <row r="118" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="140"/>
-      <c r="B118" s="137"/>
-      <c r="C118" s="134"/>
+      <c r="A118" s="132"/>
+      <c r="B118" s="135"/>
+      <c r="C118" s="130"/>
       <c r="D118" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E118" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="F118" s="134"/>
+      <c r="F118" s="130"/>
       <c r="G118" s="117">
         <v>1550</v>
       </c>
@@ -5966,18 +9804,18 @@
       <c r="K118" s="38"/>
     </row>
     <row r="119" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="140"/>
-      <c r="B119" s="137"/>
-      <c r="C119" s="134" t="s">
+      <c r="A119" s="132"/>
+      <c r="B119" s="135"/>
+      <c r="C119" s="130" t="s">
         <v>129</v>
       </c>
-      <c r="D119" s="134" t="s">
+      <c r="D119" s="130" t="s">
         <v>11</v>
       </c>
       <c r="E119" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F119" s="134" t="s">
+      <c r="F119" s="130" t="s">
         <v>20</v>
       </c>
       <c r="G119" s="113">
@@ -5998,14 +9836,14 @@
       </c>
     </row>
     <row r="120" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="140"/>
-      <c r="B120" s="137"/>
-      <c r="C120" s="134"/>
-      <c r="D120" s="134"/>
+      <c r="A120" s="132"/>
+      <c r="B120" s="135"/>
+      <c r="C120" s="130"/>
+      <c r="D120" s="130"/>
       <c r="E120" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F120" s="134"/>
+      <c r="F120" s="130"/>
       <c r="G120" s="113">
         <v>1034</v>
       </c>
@@ -6024,14 +9862,14 @@
       </c>
     </row>
     <row r="121" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="140"/>
-      <c r="B121" s="137"/>
-      <c r="C121" s="134"/>
-      <c r="D121" s="134"/>
+      <c r="A121" s="132"/>
+      <c r="B121" s="135"/>
+      <c r="C121" s="130"/>
+      <c r="D121" s="130"/>
       <c r="E121" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="F121" s="134"/>
+      <c r="F121" s="130"/>
       <c r="G121" s="113">
         <v>1034</v>
       </c>
@@ -6050,14 +9888,14 @@
       </c>
     </row>
     <row r="122" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="140"/>
-      <c r="B122" s="137"/>
-      <c r="C122" s="134"/>
-      <c r="D122" s="134"/>
+      <c r="A122" s="132"/>
+      <c r="B122" s="135"/>
+      <c r="C122" s="130"/>
+      <c r="D122" s="130"/>
       <c r="E122" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F122" s="134"/>
+      <c r="F122" s="130"/>
       <c r="G122" s="113">
         <v>1034</v>
       </c>
@@ -6076,14 +9914,14 @@
       </c>
     </row>
     <row r="123" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="140"/>
-      <c r="B123" s="137"/>
-      <c r="C123" s="134"/>
-      <c r="D123" s="134"/>
+      <c r="A123" s="132"/>
+      <c r="B123" s="135"/>
+      <c r="C123" s="130"/>
+      <c r="D123" s="130"/>
       <c r="E123" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F123" s="134"/>
+      <c r="F123" s="130"/>
       <c r="G123" s="113">
         <v>1034</v>
       </c>
@@ -6102,14 +9940,14 @@
       </c>
     </row>
     <row r="124" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="140"/>
-      <c r="B124" s="137"/>
-      <c r="C124" s="134"/>
-      <c r="D124" s="134"/>
+      <c r="A124" s="132"/>
+      <c r="B124" s="135"/>
+      <c r="C124" s="130"/>
+      <c r="D124" s="130"/>
       <c r="E124" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F124" s="134"/>
+      <c r="F124" s="130"/>
       <c r="G124" s="113">
         <v>1034</v>
       </c>
@@ -6128,16 +9966,16 @@
       </c>
     </row>
     <row r="125" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="140"/>
-      <c r="B125" s="137"/>
-      <c r="C125" s="134"/>
+      <c r="A125" s="132"/>
+      <c r="B125" s="135"/>
+      <c r="C125" s="130"/>
       <c r="D125" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E125" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F125" s="134"/>
+      <c r="F125" s="130"/>
       <c r="G125" s="117">
         <v>1859</v>
       </c>
@@ -6156,22 +9994,22 @@
       </c>
     </row>
     <row r="126" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="141" t="s">
+      <c r="A126" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="B126" s="144" t="s">
+      <c r="B126" s="151" t="s">
         <v>109</v>
       </c>
-      <c r="C126" s="134" t="s">
+      <c r="C126" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="D126" s="156" t="s">
+      <c r="D126" s="129" t="s">
         <v>11</v>
       </c>
       <c r="E126" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="F126" s="134" t="s">
+      <c r="F126" s="130" t="s">
         <v>34</v>
       </c>
       <c r="G126" s="115">
@@ -6189,14 +10027,14 @@
       </c>
     </row>
     <row r="127" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="141"/>
-      <c r="B127" s="143"/>
-      <c r="C127" s="134"/>
-      <c r="D127" s="156"/>
+      <c r="A127" s="161"/>
+      <c r="B127" s="150"/>
+      <c r="C127" s="130"/>
+      <c r="D127" s="129"/>
       <c r="E127" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="F127" s="134"/>
+      <c r="F127" s="130"/>
       <c r="G127" s="115">
         <v>1150</v>
       </c>
@@ -6212,14 +10050,14 @@
       </c>
     </row>
     <row r="128" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="141"/>
-      <c r="B128" s="143"/>
-      <c r="C128" s="134"/>
-      <c r="D128" s="156"/>
+      <c r="A128" s="161"/>
+      <c r="B128" s="150"/>
+      <c r="C128" s="130"/>
+      <c r="D128" s="129"/>
       <c r="E128" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="F128" s="134"/>
+      <c r="F128" s="130"/>
       <c r="G128" s="115">
         <v>1150</v>
       </c>
@@ -6233,16 +10071,16 @@
       <c r="K128" s="31"/>
     </row>
     <row r="129" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="141"/>
-      <c r="B129" s="143"/>
-      <c r="C129" s="134"/>
+      <c r="A129" s="161"/>
+      <c r="B129" s="150"/>
+      <c r="C129" s="130"/>
       <c r="D129" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E129" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F129" s="134"/>
+      <c r="F129" s="130"/>
       <c r="G129" s="114">
         <v>2200</v>
       </c>
@@ -6256,18 +10094,18 @@
       <c r="K129" s="31"/>
     </row>
     <row r="130" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="141"/>
-      <c r="B130" s="143"/>
-      <c r="C130" s="134" t="s">
+      <c r="A130" s="161"/>
+      <c r="B130" s="150"/>
+      <c r="C130" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="D130" s="134" t="s">
+      <c r="D130" s="130" t="s">
         <v>11</v>
       </c>
       <c r="E130" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F130" s="134" t="s">
+      <c r="F130" s="130" t="s">
         <v>34</v>
       </c>
       <c r="G130" s="123">
@@ -6283,19 +10121,19 @@
         <f t="shared" ref="J130:J136" si="4">SUM(G130:H130)</f>
         <v>2625</v>
       </c>
-      <c r="K130" s="160" t="s">
+      <c r="K130" s="148" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="131" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="141"/>
-      <c r="B131" s="143"/>
-      <c r="C131" s="134"/>
-      <c r="D131" s="134"/>
+      <c r="A131" s="161"/>
+      <c r="B131" s="150"/>
+      <c r="C131" s="130"/>
+      <c r="D131" s="130"/>
       <c r="E131" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F131" s="134"/>
+      <c r="F131" s="130"/>
       <c r="G131" s="123">
         <v>575</v>
       </c>
@@ -6309,17 +10147,17 @@
         <f t="shared" si="4"/>
         <v>1625</v>
       </c>
-      <c r="K131" s="160"/>
+      <c r="K131" s="148"/>
     </row>
     <row r="132" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="141"/>
-      <c r="B132" s="143"/>
-      <c r="C132" s="134"/>
-      <c r="D132" s="134"/>
+      <c r="A132" s="161"/>
+      <c r="B132" s="150"/>
+      <c r="C132" s="130"/>
+      <c r="D132" s="130"/>
       <c r="E132" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F132" s="134"/>
+      <c r="F132" s="130"/>
       <c r="G132" s="123">
         <v>575</v>
       </c>
@@ -6333,19 +10171,19 @@
         <f t="shared" si="4"/>
         <v>2640</v>
       </c>
-      <c r="K132" s="160"/>
+      <c r="K132" s="148"/>
     </row>
     <row r="133" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="141"/>
-      <c r="B133" s="143"/>
-      <c r="C133" s="134"/>
-      <c r="D133" s="134" t="s">
+      <c r="A133" s="161"/>
+      <c r="B133" s="150"/>
+      <c r="C133" s="130"/>
+      <c r="D133" s="130" t="s">
         <v>15</v>
       </c>
       <c r="E133" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F133" s="134"/>
+      <c r="F133" s="130"/>
       <c r="G133" s="124">
         <v>1150</v>
       </c>
@@ -6359,17 +10197,17 @@
         <f t="shared" si="4"/>
         <v>2600</v>
       </c>
-      <c r="K133" s="160"/>
+      <c r="K133" s="148"/>
     </row>
     <row r="134" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="141"/>
-      <c r="B134" s="143"/>
-      <c r="C134" s="134"/>
-      <c r="D134" s="134"/>
+      <c r="A134" s="161"/>
+      <c r="B134" s="150"/>
+      <c r="C134" s="130"/>
+      <c r="D134" s="130"/>
       <c r="E134" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="F134" s="134"/>
+      <c r="F134" s="130"/>
       <c r="G134" s="124">
         <v>1150</v>
       </c>
@@ -6383,16 +10221,16 @@
         <f t="shared" si="4"/>
         <v>3200</v>
       </c>
-      <c r="K134" s="160"/>
+      <c r="K134" s="148"/>
     </row>
     <row r="135" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="142" t="s">
+      <c r="A135" s="152" t="s">
         <v>66</v>
       </c>
-      <c r="B135" s="143" t="s">
+      <c r="B135" s="150" t="s">
         <v>110</v>
       </c>
-      <c r="C135" s="134" t="s">
+      <c r="C135" s="130" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="18" t="s">
@@ -6401,7 +10239,7 @@
       <c r="E135" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F135" s="134" t="s">
+      <c r="F135" s="130" t="s">
         <v>31</v>
       </c>
       <c r="G135" s="117">
@@ -6422,16 +10260,16 @@
       </c>
     </row>
     <row r="136" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="142"/>
-      <c r="B136" s="143"/>
-      <c r="C136" s="134"/>
+      <c r="A136" s="152"/>
+      <c r="B136" s="150"/>
+      <c r="C136" s="130"/>
       <c r="D136" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E136" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F136" s="134"/>
+      <c r="F136" s="130"/>
       <c r="G136" s="117">
         <v>2910</v>
       </c>
@@ -6450,18 +10288,18 @@
       </c>
     </row>
     <row r="137" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="142"/>
-      <c r="B137" s="143"/>
-      <c r="C137" s="147" t="s">
+      <c r="A137" s="152"/>
+      <c r="B137" s="150"/>
+      <c r="C137" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="D137" s="166" t="s">
+      <c r="D137" s="139" t="s">
         <v>133</v>
       </c>
       <c r="E137" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="F137" s="147" t="s">
+      <c r="F137" s="141" t="s">
         <v>34</v>
       </c>
       <c r="G137" s="115">
@@ -6479,14 +10317,14 @@
       </c>
     </row>
     <row r="138" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="142"/>
-      <c r="B138" s="143"/>
-      <c r="C138" s="147"/>
-      <c r="D138" s="167"/>
+      <c r="A138" s="152"/>
+      <c r="B138" s="150"/>
+      <c r="C138" s="141"/>
+      <c r="D138" s="140"/>
       <c r="E138" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="F138" s="147"/>
+      <c r="F138" s="141"/>
       <c r="G138" s="115">
         <v>1150</v>
       </c>
@@ -6502,14 +10340,14 @@
       </c>
     </row>
     <row r="139" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="142"/>
-      <c r="B139" s="143"/>
-      <c r="C139" s="134"/>
-      <c r="D139" s="167"/>
+      <c r="A139" s="152"/>
+      <c r="B139" s="150"/>
+      <c r="C139" s="130"/>
+      <c r="D139" s="140"/>
       <c r="E139" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="F139" s="134"/>
+      <c r="F139" s="130"/>
       <c r="G139" s="115">
         <v>1150</v>
       </c>
@@ -6523,16 +10361,16 @@
       <c r="K139" s="31"/>
     </row>
     <row r="140" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="142"/>
-      <c r="B140" s="143"/>
-      <c r="C140" s="134"/>
+      <c r="A140" s="152"/>
+      <c r="B140" s="150"/>
+      <c r="C140" s="130"/>
       <c r="D140" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E140" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="F140" s="134"/>
+      <c r="F140" s="130"/>
       <c r="G140" s="114">
         <v>2200</v>
       </c>
@@ -6546,9 +10384,9 @@
       <c r="K140" s="31"/>
     </row>
     <row r="141" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="142"/>
-      <c r="B141" s="143"/>
-      <c r="C141" s="134" t="s">
+      <c r="A141" s="152"/>
+      <c r="B141" s="150"/>
+      <c r="C141" s="130" t="s">
         <v>63</v>
       </c>
       <c r="D141" s="18" t="s">
@@ -6557,7 +10395,7 @@
       <c r="E141" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F141" s="134" t="s">
+      <c r="F141" s="130" t="s">
         <v>31</v>
       </c>
       <c r="G141" s="114">
@@ -6573,21 +10411,21 @@
         <f>G141+H141</f>
         <v>4860</v>
       </c>
-      <c r="K141" s="160" t="s">
+      <c r="K141" s="148" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="142" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="142"/>
-      <c r="B142" s="143"/>
-      <c r="C142" s="134"/>
+      <c r="A142" s="152"/>
+      <c r="B142" s="150"/>
+      <c r="C142" s="130"/>
       <c r="D142" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E142" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F142" s="134"/>
+      <c r="F142" s="130"/>
       <c r="G142" s="122">
         <v>2900</v>
       </c>
@@ -6601,23 +10439,23 @@
         <f>SUM(G142:H142)</f>
         <v>6665</v>
       </c>
-      <c r="K142" s="160"/>
+      <c r="K142" s="148"/>
     </row>
     <row r="143" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="142"/>
-      <c r="B143" s="143" t="s">
+      <c r="A143" s="152"/>
+      <c r="B143" s="150" t="s">
         <v>118</v>
       </c>
-      <c r="C143" s="156" t="s">
+      <c r="C143" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="D143" s="156" t="s">
+      <c r="D143" s="129" t="s">
         <v>11</v>
       </c>
       <c r="E143" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="F143" s="134" t="s">
+      <c r="F143" s="130" t="s">
         <v>31</v>
       </c>
       <c r="G143" s="113">
@@ -6635,14 +10473,14 @@
       </c>
     </row>
     <row r="144" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="142"/>
-      <c r="B144" s="143"/>
-      <c r="C144" s="156"/>
-      <c r="D144" s="156"/>
+      <c r="A144" s="152"/>
+      <c r="B144" s="150"/>
+      <c r="C144" s="129"/>
+      <c r="D144" s="129"/>
       <c r="E144" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="F144" s="134"/>
+      <c r="F144" s="130"/>
       <c r="G144" s="113">
         <v>1275</v>
       </c>
@@ -6656,16 +10494,16 @@
       <c r="K144" s="50"/>
     </row>
     <row r="145" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="142"/>
-      <c r="B145" s="143"/>
-      <c r="C145" s="156"/>
+      <c r="A145" s="152"/>
+      <c r="B145" s="150"/>
+      <c r="C145" s="129"/>
       <c r="D145" s="35" t="s">
         <v>15</v>
       </c>
       <c r="E145" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="F145" s="134"/>
+      <c r="F145" s="130"/>
       <c r="G145" s="113">
         <v>1850</v>
       </c>
@@ -6679,18 +10517,18 @@
       <c r="K145" s="50"/>
     </row>
     <row r="146" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="142"/>
-      <c r="B146" s="143"/>
-      <c r="C146" s="156" t="s">
+      <c r="A146" s="152"/>
+      <c r="B146" s="150"/>
+      <c r="C146" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="D146" s="156" t="s">
+      <c r="D146" s="129" t="s">
         <v>11</v>
       </c>
       <c r="E146" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="F146" s="134" t="s">
+      <c r="F146" s="130" t="s">
         <v>34</v>
       </c>
       <c r="G146" s="115">
@@ -6708,14 +10546,14 @@
       </c>
     </row>
     <row r="147" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="142"/>
-      <c r="B147" s="143"/>
-      <c r="C147" s="156"/>
-      <c r="D147" s="156"/>
+      <c r="A147" s="152"/>
+      <c r="B147" s="150"/>
+      <c r="C147" s="129"/>
+      <c r="D147" s="129"/>
       <c r="E147" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="F147" s="134"/>
+      <c r="F147" s="130"/>
       <c r="G147" s="115">
         <v>1175</v>
       </c>
@@ -6731,14 +10569,14 @@
       </c>
     </row>
     <row r="148" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="142"/>
-      <c r="B148" s="143"/>
-      <c r="C148" s="156"/>
-      <c r="D148" s="156"/>
+      <c r="A148" s="152"/>
+      <c r="B148" s="150"/>
+      <c r="C148" s="129"/>
+      <c r="D148" s="129"/>
       <c r="E148" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="F148" s="134"/>
+      <c r="F148" s="130"/>
       <c r="G148" s="115">
         <v>1175</v>
       </c>
@@ -6752,16 +10590,16 @@
       <c r="K148" s="34"/>
     </row>
     <row r="149" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="142"/>
-      <c r="B149" s="143"/>
-      <c r="C149" s="157"/>
+      <c r="A149" s="152"/>
+      <c r="B149" s="150"/>
+      <c r="C149" s="149"/>
       <c r="D149" s="52" t="s">
         <v>15</v>
       </c>
       <c r="E149" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="F149" s="134"/>
+      <c r="F149" s="130"/>
       <c r="G149" s="114">
         <v>2150</v>
       </c>
@@ -6778,9 +10616,9 @@
       <c r="K149" s="54"/>
     </row>
     <row r="150" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="142"/>
-      <c r="B150" s="143"/>
-      <c r="C150" s="134" t="s">
+      <c r="A150" s="152"/>
+      <c r="B150" s="150"/>
+      <c r="C150" s="130" t="s">
         <v>17</v>
       </c>
       <c r="D150" s="18" t="s">
@@ -6789,7 +10627,7 @@
       <c r="E150" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F150" s="134" t="s">
+      <c r="F150" s="130" t="s">
         <v>31</v>
       </c>
       <c r="G150" s="117">
@@ -6810,16 +10648,16 @@
       </c>
     </row>
     <row r="151" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="142"/>
-      <c r="B151" s="143"/>
-      <c r="C151" s="134"/>
+      <c r="A151" s="152"/>
+      <c r="B151" s="150"/>
+      <c r="C151" s="130"/>
       <c r="D151" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E151" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F151" s="134"/>
+      <c r="F151" s="130"/>
       <c r="G151" s="117">
         <v>2910</v>
       </c>
@@ -6838,11 +10676,11 @@
       </c>
     </row>
     <row r="152" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="142"/>
-      <c r="B152" s="136" t="s">
+      <c r="A152" s="152"/>
+      <c r="B152" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="C152" s="134" t="s">
+      <c r="C152" s="130" t="s">
         <v>33</v>
       </c>
       <c r="D152" s="18" t="s">
@@ -6851,7 +10689,7 @@
       <c r="E152" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F152" s="134" t="s">
+      <c r="F152" s="130" t="s">
         <v>34</v>
       </c>
       <c r="G152" s="115">
@@ -6869,16 +10707,16 @@
       </c>
     </row>
     <row r="153" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="142"/>
-      <c r="B153" s="137"/>
-      <c r="C153" s="134"/>
+      <c r="A153" s="152"/>
+      <c r="B153" s="135"/>
+      <c r="C153" s="130"/>
       <c r="D153" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E153" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="F153" s="134"/>
+      <c r="F153" s="130"/>
       <c r="G153" s="114">
         <v>2200</v>
       </c>
@@ -6892,9 +10730,9 @@
       <c r="K153" s="31"/>
     </row>
     <row r="154" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="142"/>
-      <c r="B154" s="137"/>
-      <c r="C154" s="134" t="s">
+      <c r="A154" s="152"/>
+      <c r="B154" s="135"/>
+      <c r="C154" s="130" t="s">
         <v>17</v>
       </c>
       <c r="D154" s="18" t="s">
@@ -6903,7 +10741,7 @@
       <c r="E154" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F154" s="134" t="s">
+      <c r="F154" s="130" t="s">
         <v>31</v>
       </c>
       <c r="G154" s="117">
@@ -6924,16 +10762,16 @@
       </c>
     </row>
     <row r="155" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="142"/>
-      <c r="B155" s="138"/>
-      <c r="C155" s="134"/>
+      <c r="A155" s="152"/>
+      <c r="B155" s="136"/>
+      <c r="C155" s="130"/>
       <c r="D155" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E155" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F155" s="134"/>
+      <c r="F155" s="130"/>
       <c r="G155" s="117">
         <v>2910</v>
       </c>
@@ -6952,11 +10790,11 @@
       </c>
     </row>
     <row r="156" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="142"/>
-      <c r="B156" s="136" t="s">
+      <c r="A156" s="152"/>
+      <c r="B156" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="C156" s="134" t="s">
+      <c r="C156" s="130" t="s">
         <v>17</v>
       </c>
       <c r="D156" s="18" t="s">
@@ -6965,7 +10803,7 @@
       <c r="E156" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F156" s="134" t="s">
+      <c r="F156" s="130" t="s">
         <v>31</v>
       </c>
       <c r="G156" s="117">
@@ -6986,16 +10824,16 @@
       </c>
     </row>
     <row r="157" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="142"/>
-      <c r="B157" s="138"/>
-      <c r="C157" s="134"/>
+      <c r="A157" s="152"/>
+      <c r="B157" s="136"/>
+      <c r="C157" s="130"/>
       <c r="D157" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E157" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F157" s="134"/>
+      <c r="F157" s="130"/>
       <c r="G157" s="117">
         <v>2910</v>
       </c>
@@ -7014,11 +10852,11 @@
       </c>
     </row>
     <row r="158" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="142"/>
-      <c r="B158" s="143" t="s">
+      <c r="A158" s="152"/>
+      <c r="B158" s="150" t="s">
         <v>73</v>
       </c>
-      <c r="C158" s="134" t="s">
+      <c r="C158" s="130" t="s">
         <v>17</v>
       </c>
       <c r="D158" s="18" t="s">
@@ -7027,7 +10865,7 @@
       <c r="E158" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F158" s="134" t="s">
+      <c r="F158" s="130" t="s">
         <v>31</v>
       </c>
       <c r="G158" s="117">
@@ -7048,16 +10886,16 @@
       </c>
     </row>
     <row r="159" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="142"/>
-      <c r="B159" s="143"/>
-      <c r="C159" s="134"/>
+      <c r="A159" s="152"/>
+      <c r="B159" s="150"/>
+      <c r="C159" s="130"/>
       <c r="D159" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E159" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F159" s="134"/>
+      <c r="F159" s="130"/>
       <c r="G159" s="117">
         <v>2910</v>
       </c>
@@ -7076,11 +10914,11 @@
       </c>
     </row>
     <row r="160" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="142"/>
-      <c r="B160" s="143" t="s">
+      <c r="A160" s="152"/>
+      <c r="B160" s="150" t="s">
         <v>74</v>
       </c>
-      <c r="C160" s="134" t="s">
+      <c r="C160" s="130" t="s">
         <v>17</v>
       </c>
       <c r="D160" s="18" t="s">
@@ -7089,7 +10927,7 @@
       <c r="E160" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F160" s="134" t="s">
+      <c r="F160" s="130" t="s">
         <v>31</v>
       </c>
       <c r="G160" s="117">
@@ -7110,16 +10948,16 @@
       </c>
     </row>
     <row r="161" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="142"/>
-      <c r="B161" s="143"/>
-      <c r="C161" s="134"/>
+      <c r="A161" s="152"/>
+      <c r="B161" s="150"/>
+      <c r="C161" s="130"/>
       <c r="D161" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E161" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F161" s="134"/>
+      <c r="F161" s="130"/>
       <c r="G161" s="117">
         <v>2910</v>
       </c>
@@ -7138,22 +10976,22 @@
       </c>
     </row>
     <row r="162" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="129" t="s">
+      <c r="A162" s="165" t="s">
         <v>111</v>
       </c>
-      <c r="B162" s="136" t="s">
+      <c r="B162" s="134" t="s">
         <v>112</v>
       </c>
       <c r="C162" s="145" t="s">
         <v>124</v>
       </c>
-      <c r="D162" s="134" t="s">
+      <c r="D162" s="130" t="s">
         <v>11</v>
       </c>
       <c r="E162" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="F162" s="134" t="s">
+      <c r="F162" s="130" t="s">
         <v>135</v>
       </c>
       <c r="G162" s="117">
@@ -7174,14 +11012,14 @@
       </c>
     </row>
     <row r="163" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="135"/>
-      <c r="B163" s="137"/>
+      <c r="A163" s="170"/>
+      <c r="B163" s="135"/>
       <c r="C163" s="146"/>
-      <c r="D163" s="134"/>
+      <c r="D163" s="130"/>
       <c r="E163" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="F163" s="134"/>
+      <c r="F163" s="130"/>
       <c r="G163" s="117">
         <v>2510</v>
       </c>
@@ -7200,14 +11038,14 @@
       </c>
     </row>
     <row r="164" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="135"/>
-      <c r="B164" s="137"/>
+      <c r="A164" s="170"/>
+      <c r="B164" s="135"/>
       <c r="C164" s="146"/>
-      <c r="D164" s="134"/>
+      <c r="D164" s="130"/>
       <c r="E164" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="F164" s="134"/>
+      <c r="F164" s="130"/>
       <c r="G164" s="117">
         <v>2510</v>
       </c>
@@ -7226,14 +11064,14 @@
       </c>
     </row>
     <row r="165" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="135"/>
-      <c r="B165" s="137"/>
+      <c r="A165" s="170"/>
+      <c r="B165" s="135"/>
       <c r="C165" s="146"/>
-      <c r="D165" s="134"/>
+      <c r="D165" s="130"/>
       <c r="E165" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="F165" s="134"/>
+      <c r="F165" s="130"/>
       <c r="G165" s="117">
         <v>2510</v>
       </c>
@@ -7252,16 +11090,16 @@
       </c>
     </row>
     <row r="166" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="135"/>
-      <c r="B166" s="137"/>
-      <c r="C166" s="147"/>
+      <c r="A166" s="170"/>
+      <c r="B166" s="135"/>
+      <c r="C166" s="141"/>
       <c r="D166" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E166" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F166" s="134"/>
+      <c r="F166" s="130"/>
       <c r="G166" s="117">
         <v>4520</v>
       </c>
@@ -7280,9 +11118,9 @@
       </c>
     </row>
     <row r="167" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="135"/>
-      <c r="B167" s="137"/>
-      <c r="C167" s="129" t="s">
+      <c r="A167" s="170"/>
+      <c r="B167" s="135"/>
+      <c r="C167" s="165" t="s">
         <v>174</v>
       </c>
       <c r="D167" s="32" t="s">
@@ -7291,7 +11129,7 @@
       <c r="E167" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="F167" s="129" t="s">
+      <c r="F167" s="165" t="s">
         <v>164</v>
       </c>
       <c r="G167" s="117">
@@ -7300,7 +11138,7 @@
       <c r="H167" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="I167" s="127" t="s">
+      <c r="I167" s="163" t="s">
         <v>177</v>
       </c>
       <c r="J167" s="32" t="s">
@@ -7311,23 +11149,23 @@
       </c>
     </row>
     <row r="168" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="135"/>
-      <c r="B168" s="137"/>
-      <c r="C168" s="135"/>
+      <c r="A168" s="170"/>
+      <c r="B168" s="135"/>
+      <c r="C168" s="170"/>
       <c r="D168" s="32" t="s">
         <v>162</v>
       </c>
       <c r="E168" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="F168" s="130"/>
+      <c r="F168" s="166"/>
       <c r="G168" s="117">
         <v>4073</v>
       </c>
       <c r="H168" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="I168" s="128"/>
+      <c r="I168" s="164"/>
       <c r="J168" s="32" t="s">
         <v>165</v>
       </c>
@@ -7336,16 +11174,16 @@
       </c>
     </row>
     <row r="169" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="135"/>
-      <c r="B169" s="137"/>
-      <c r="C169" s="135"/>
-      <c r="D169" s="131" t="s">
+      <c r="A169" s="170"/>
+      <c r="B169" s="135"/>
+      <c r="C169" s="170"/>
+      <c r="D169" s="167" t="s">
         <v>160</v>
       </c>
       <c r="E169" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="F169" s="134" t="s">
+      <c r="F169" s="130" t="s">
         <v>135</v>
       </c>
       <c r="G169" s="117">
@@ -7354,7 +11192,7 @@
       <c r="H169" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="I169" s="126" t="s">
+      <c r="I169" s="162" t="s">
         <v>178</v>
       </c>
       <c r="J169" s="32" t="s">
@@ -7365,21 +11203,21 @@
       </c>
     </row>
     <row r="170" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="135"/>
-      <c r="B170" s="137"/>
-      <c r="C170" s="135"/>
-      <c r="D170" s="132"/>
+      <c r="A170" s="170"/>
+      <c r="B170" s="135"/>
+      <c r="C170" s="170"/>
+      <c r="D170" s="168"/>
       <c r="E170" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="F170" s="134"/>
+      <c r="F170" s="130"/>
       <c r="G170" s="117">
         <v>2493</v>
       </c>
       <c r="H170" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="I170" s="126"/>
+      <c r="I170" s="162"/>
       <c r="J170" s="32" t="s">
         <v>165</v>
       </c>
@@ -7388,21 +11226,21 @@
       </c>
     </row>
     <row r="171" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="135"/>
-      <c r="B171" s="137"/>
-      <c r="C171" s="135"/>
-      <c r="D171" s="132"/>
+      <c r="A171" s="170"/>
+      <c r="B171" s="135"/>
+      <c r="C171" s="170"/>
+      <c r="D171" s="168"/>
       <c r="E171" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="F171" s="134"/>
+      <c r="F171" s="130"/>
       <c r="G171" s="117">
         <v>2493</v>
       </c>
       <c r="H171" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="I171" s="126"/>
+      <c r="I171" s="162"/>
       <c r="J171" s="32" t="s">
         <v>165</v>
       </c>
@@ -7411,21 +11249,21 @@
       </c>
     </row>
     <row r="172" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="135"/>
-      <c r="B172" s="137"/>
-      <c r="C172" s="135"/>
-      <c r="D172" s="132"/>
+      <c r="A172" s="170"/>
+      <c r="B172" s="135"/>
+      <c r="C172" s="170"/>
+      <c r="D172" s="168"/>
       <c r="E172" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="F172" s="134"/>
+      <c r="F172" s="130"/>
       <c r="G172" s="117">
         <v>2493</v>
       </c>
       <c r="H172" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="I172" s="126"/>
+      <c r="I172" s="162"/>
       <c r="J172" s="32" t="s">
         <v>165</v>
       </c>
@@ -7434,21 +11272,21 @@
       </c>
     </row>
     <row r="173" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="135"/>
-      <c r="B173" s="137"/>
-      <c r="C173" s="135"/>
-      <c r="D173" s="132"/>
+      <c r="A173" s="170"/>
+      <c r="B173" s="135"/>
+      <c r="C173" s="170"/>
+      <c r="D173" s="168"/>
       <c r="E173" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="F173" s="134"/>
+      <c r="F173" s="130"/>
       <c r="G173" s="117">
         <v>2493</v>
       </c>
       <c r="H173" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="I173" s="126"/>
+      <c r="I173" s="162"/>
       <c r="J173" s="32" t="s">
         <v>165</v>
       </c>
@@ -7457,21 +11295,21 @@
       </c>
     </row>
     <row r="174" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="135"/>
-      <c r="B174" s="137"/>
-      <c r="C174" s="135"/>
-      <c r="D174" s="133"/>
+      <c r="A174" s="170"/>
+      <c r="B174" s="135"/>
+      <c r="C174" s="170"/>
+      <c r="D174" s="169"/>
       <c r="E174" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="F174" s="134"/>
+      <c r="F174" s="130"/>
       <c r="G174" s="117">
         <v>2493</v>
       </c>
       <c r="H174" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="I174" s="126"/>
+      <c r="I174" s="162"/>
       <c r="J174" s="32" t="s">
         <v>165</v>
       </c>
@@ -7480,23 +11318,23 @@
       </c>
     </row>
     <row r="175" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="130"/>
-      <c r="B175" s="138"/>
-      <c r="C175" s="130"/>
+      <c r="A175" s="166"/>
+      <c r="B175" s="136"/>
+      <c r="C175" s="166"/>
       <c r="D175" s="32" t="s">
         <v>173</v>
       </c>
       <c r="E175" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="F175" s="134"/>
+      <c r="F175" s="130"/>
       <c r="G175" s="117">
         <v>4473</v>
       </c>
       <c r="H175" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="I175" s="126"/>
+      <c r="I175" s="162"/>
       <c r="J175" s="32" t="s">
         <v>165</v>
       </c>
@@ -7505,22 +11343,22 @@
       </c>
     </row>
     <row r="176" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="136" t="s">
+      <c r="A176" s="134" t="s">
         <v>114</v>
       </c>
-      <c r="B176" s="162" t="s">
+      <c r="B176" s="142" t="s">
         <v>159</v>
       </c>
       <c r="C176" s="145" t="s">
         <v>124</v>
       </c>
-      <c r="D176" s="134" t="s">
+      <c r="D176" s="130" t="s">
         <v>11</v>
       </c>
       <c r="E176" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="F176" s="147" t="s">
+      <c r="F176" s="141" t="s">
         <v>140</v>
       </c>
       <c r="G176" s="118">
@@ -7539,14 +11377,14 @@
       </c>
     </row>
     <row r="177" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="140"/>
-      <c r="B177" s="163"/>
+      <c r="A177" s="132"/>
+      <c r="B177" s="143"/>
       <c r="C177" s="146"/>
-      <c r="D177" s="134"/>
+      <c r="D177" s="130"/>
       <c r="E177" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="F177" s="134"/>
+      <c r="F177" s="130"/>
       <c r="G177" s="118">
         <v>2160</v>
       </c>
@@ -7563,14 +11401,14 @@
       </c>
     </row>
     <row r="178" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="140"/>
-      <c r="B178" s="163"/>
+      <c r="A178" s="132"/>
+      <c r="B178" s="143"/>
       <c r="C178" s="146"/>
-      <c r="D178" s="134"/>
+      <c r="D178" s="130"/>
       <c r="E178" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="F178" s="134"/>
+      <c r="F178" s="130"/>
       <c r="G178" s="118">
         <v>2160</v>
       </c>
@@ -7587,14 +11425,14 @@
       </c>
     </row>
     <row r="179" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="140"/>
-      <c r="B179" s="163"/>
+      <c r="A179" s="132"/>
+      <c r="B179" s="143"/>
       <c r="C179" s="146"/>
-      <c r="D179" s="134"/>
+      <c r="D179" s="130"/>
       <c r="E179" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="F179" s="134"/>
+      <c r="F179" s="130"/>
       <c r="G179" s="118">
         <v>2160</v>
       </c>
@@ -7611,16 +11449,16 @@
       </c>
     </row>
     <row r="180" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="140"/>
-      <c r="B180" s="163"/>
+      <c r="A180" s="132"/>
+      <c r="B180" s="143"/>
       <c r="C180" s="146"/>
-      <c r="D180" s="165" t="s">
+      <c r="D180" s="137" t="s">
         <v>15</v>
       </c>
       <c r="E180" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="F180" s="134"/>
+      <c r="F180" s="130"/>
       <c r="G180" s="117">
         <v>3620</v>
       </c>
@@ -7637,14 +11475,14 @@
       </c>
     </row>
     <row r="181" spans="1:11" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="161"/>
-      <c r="B181" s="164"/>
-      <c r="C181" s="147"/>
-      <c r="D181" s="159"/>
+      <c r="A181" s="133"/>
+      <c r="B181" s="144"/>
+      <c r="C181" s="141"/>
+      <c r="D181" s="147"/>
       <c r="E181" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="F181" s="134"/>
+      <c r="F181" s="130"/>
       <c r="G181" s="117">
         <v>3620</v>
       </c>
@@ -7728,114 +11566,70 @@
   <sheetProtection password="CC1D" sheet="1"/>
   <autoFilter ref="A1:K182"/>
   <mergeCells count="204">
-    <mergeCell ref="D146:D148"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="D137:D139"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="C130:C134"/>
-    <mergeCell ref="D130:D132"/>
-    <mergeCell ref="F158:F159"/>
-    <mergeCell ref="F160:F161"/>
-    <mergeCell ref="F107:F109"/>
-    <mergeCell ref="F176:F181"/>
-    <mergeCell ref="A176:A181"/>
-    <mergeCell ref="B176:B181"/>
-    <mergeCell ref="C176:C181"/>
-    <mergeCell ref="D176:D179"/>
-    <mergeCell ref="D180:D181"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="K130:K134"/>
-    <mergeCell ref="K141:K142"/>
-    <mergeCell ref="F146:F149"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F126:F129"/>
-    <mergeCell ref="F130:F134"/>
-    <mergeCell ref="F92:F94"/>
-    <mergeCell ref="F95:F97"/>
-    <mergeCell ref="F98:F100"/>
-    <mergeCell ref="F156:F157"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="F137:F140"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="F143:F145"/>
-    <mergeCell ref="F110:F113"/>
-    <mergeCell ref="F114:F118"/>
-    <mergeCell ref="F119:F125"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="F103:F106"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="F84:F86"/>
-    <mergeCell ref="F87:F89"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="F70:F72"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="D119:D124"/>
-    <mergeCell ref="D126:D128"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C137:C140"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="C143:C145"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="I169:I175"/>
+    <mergeCell ref="I167:I168"/>
+    <mergeCell ref="F167:F168"/>
+    <mergeCell ref="D169:D174"/>
+    <mergeCell ref="F169:F175"/>
+    <mergeCell ref="A162:A175"/>
+    <mergeCell ref="B162:B175"/>
+    <mergeCell ref="C167:C175"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C162:C166"/>
+    <mergeCell ref="D162:D165"/>
+    <mergeCell ref="F162:F166"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="B114:B125"/>
+    <mergeCell ref="B152:B155"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="F154:F155"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="B126:B134"/>
+    <mergeCell ref="B135:B142"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A39"/>
+    <mergeCell ref="A40:A83"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="A84:A102"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="A103:A109"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="B78:B83"/>
+    <mergeCell ref="B84:B94"/>
+    <mergeCell ref="B95:B102"/>
+    <mergeCell ref="B103:B109"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B40:B52"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="C67:C69"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="C152:C153"/>
@@ -7860,78 +11654,122 @@
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C137:C140"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D32:D33"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B143:B151"/>
     <mergeCell ref="C78:C80"/>
     <mergeCell ref="C81:C83"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B40:B52"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="A84:A102"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="A103:A109"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="B78:B83"/>
-    <mergeCell ref="B84:B94"/>
-    <mergeCell ref="B95:B102"/>
-    <mergeCell ref="B103:B109"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A39"/>
-    <mergeCell ref="A40:A83"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C162:C166"/>
-    <mergeCell ref="D162:D165"/>
-    <mergeCell ref="F162:F166"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="K130:K134"/>
+    <mergeCell ref="K141:K142"/>
+    <mergeCell ref="F146:F149"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F126:F129"/>
+    <mergeCell ref="F130:F134"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="F98:F100"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="F137:F140"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="F143:F145"/>
+    <mergeCell ref="F110:F113"/>
+    <mergeCell ref="F114:F118"/>
+    <mergeCell ref="F119:F125"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="F103:F106"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="F84:F86"/>
+    <mergeCell ref="F87:F89"/>
+    <mergeCell ref="F158:F159"/>
+    <mergeCell ref="F160:F161"/>
+    <mergeCell ref="F107:F109"/>
+    <mergeCell ref="F176:F181"/>
+    <mergeCell ref="A176:A181"/>
+    <mergeCell ref="B176:B181"/>
+    <mergeCell ref="C176:C181"/>
+    <mergeCell ref="D176:D179"/>
+    <mergeCell ref="D180:D181"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="F156:F157"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="D119:D124"/>
+    <mergeCell ref="D126:D128"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="C143:C145"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="B143:B151"/>
     <mergeCell ref="A114:A125"/>
-    <mergeCell ref="B114:B125"/>
-    <mergeCell ref="B152:B155"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="F154:F155"/>
     <mergeCell ref="A126:A134"/>
     <mergeCell ref="A135:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="B126:B134"/>
-    <mergeCell ref="B135:B142"/>
-    <mergeCell ref="I169:I175"/>
-    <mergeCell ref="I167:I168"/>
-    <mergeCell ref="F167:F168"/>
-    <mergeCell ref="D169:D174"/>
-    <mergeCell ref="F169:F175"/>
-    <mergeCell ref="A162:A175"/>
-    <mergeCell ref="B162:B175"/>
-    <mergeCell ref="C167:C175"/>
+    <mergeCell ref="D146:D148"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="D137:D139"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="C130:C134"/>
+    <mergeCell ref="D130:D132"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
@@ -7940,7 +11778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R57"/>
   <sheetViews>
@@ -9184,7 +13022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J79"/>
   <sheetViews>
